--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -575,7 +575,7 @@
         <v>46041.37991898148</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45215</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44889.44659722222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45386</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44830</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44424.69891203703</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45763.78657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45818.65486111111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45631.8084375</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45218</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>45183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44882.65143518519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>45742.78724537037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>45716.65045138889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44244.67355324074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44609.47314814815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44525.50052083333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44785</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44785</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44477</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44463.35791666667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44463.35958333333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44473.81864583334</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>44445</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44280</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>44351.48209490741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>44306.68837962963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44327.57842592592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44315</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44245</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44245.62944444444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44251</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44438</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44515</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44286</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44802.57482638889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44749.58270833334</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44802.57569444444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44785</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44798.3397337963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44474.50116898148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44350.60737268518</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44523</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44428.87</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44245.62523148148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44279.38944444444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44245.37445601852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44321</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44245</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44245</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44385.32215277778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44503.48087962963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44785</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>44665</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44462.89869212963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44846.67137731481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44245</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44397</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44460.73518518519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>44847.48289351852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>44498.27439814815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>44274.84170138889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44427</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44427.31769675926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>44344</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44690.88424768519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>44413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>44400.7940162037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>44448.62939814815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>44383.37193287037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>44377.64809027778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>44504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>44453.64589120371</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>44602.59478009259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44245.62716435185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>44397</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>44512.3278587963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>44621.38096064814</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>44253</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>44448</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>44609.87715277778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>44292</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44344.42061342593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>44487</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>44721.47574074074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>44587</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44386.74578703703</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44802</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>44474.34982638889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>44509.46288194445</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>44431</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>44427</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>44427.31667824074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>44739</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>44463.69890046296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>44733.53642361111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>44551</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>44278</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>44342.36506944444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44621.38295138889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44854.6284837963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44854</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>44680.80325231481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>44524</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44690.86459490741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44690.86802083333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44460.3700462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44477</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44865</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44721.47675925926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44685.3320949074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44326.44072916666</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44312.66563657407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44474.50032407408</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44327.57980324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44643.5586574074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44596</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44266.76030092593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>44510</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>44522</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>44362.73894675926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>44251</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>44636</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44643.55725694444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>44657</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44327.58231481481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44433</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44491.52920138889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44831</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44831</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>45433.33723379629</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>45209</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>44292.58516203704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>45244.59032407407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>45348</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>45457</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>45098</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>45062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>45610.50424768519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>45734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>45735.55299768518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>45735.555</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>44496.59342592592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>45205.54072916666</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44826.33715277778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44962</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44610.53254629629</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>45254.48099537037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>45469.59653935185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>45543.72571759259</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>45578</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>45554</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>45133.66960648148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>45575.56337962963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45049.36695601852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>45457</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>45457</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>45680.59315972222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>45680.59511574074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>45133.66702546296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44473.86554398148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>45175</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>45737.26609953704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>45359.30721064815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>45769</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>45769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44496</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>45469.70945601852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>45566.67163194445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45222.69469907408</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>45222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>45720.21070601852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>45309.33142361111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44686.47582175926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>44994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>44876.35701388889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45680</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45051</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45799.30594907407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>45103.70469907407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>45638.67876157408</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45638.91269675926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45187.60745370371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45405.59800925926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44511.80325231481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44511.87037037037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45702.37107638889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>45315.51804398148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44817</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>45589.48217592593</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>45531</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>45560.76623842592</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>45460.54523148148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>45663.86024305555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>45805.6447337963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45805.66611111111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>45804.36956018519</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45240</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45805.65143518519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45805.65680555555</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>45350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44998</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>45693.54733796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>45804.3675</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>45804.49628472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>45804.36267361111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>45804.4793287037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45884.30076388889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45884.31721064815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44853.81002314815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45303.45996527778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45290</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45180.86666666667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         <v>45888.53797453704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>45888.66755787037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>45586</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>45637.55135416667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>45443.56369212963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>44935.34144675926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>45888.51924768519</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>45888.46113425926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44979.46550925926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>44859</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>45891.64903935185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>45891.63444444445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>45684.32357638889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>45612.66797453703</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>45679</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>45895.61116898148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>45817.50908564815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>45817.63480324074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>45771.45237268518</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>45726.55761574074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45897.68016203704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45897.44570601852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45015.31724537037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45896.68458333334</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>45771.54563657408</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>45898.47987268519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15338,7 +15338,7 @@
         <v>45512.42822916667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>45818.39106481482</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>45548.59546296296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>45818.60510416667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>45875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>45695.35372685185</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>45462.60291666666</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>45187.60013888889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>45901.3906712963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>45771.54145833333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44958.84677083333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>45748</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44320.42920138889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45328.43439814815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>45903.57832175926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45902.60076388889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44861</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>45062.49423611111</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45414.31873842593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44315</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44315</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45855.4741087963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>45909.70618055556</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>45681.46109953704</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>45824</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>45911.42127314815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>45911.47451388889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>45911.57913194445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>45911.65790509259</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>45827.60109953704</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>45441</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45460</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>45915.49127314815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>45716.64879629629</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45090.3316550926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44994</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>45912.35086805555</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>45335.41604166666</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>44994.69185185185</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>45042.29704861111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45716.60950231482</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>45680.71556712963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45334.8496875</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>45917.29938657407</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>45916.63920138889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>45916.6452662037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>45917.29707175926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>45884</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>45373.3674537037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>45917.29179398148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>45916.67770833334</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>45916.69076388889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>45831.66119212963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>45916.71357638889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45078</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>45681.45844907407</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45068.71310185185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>45831</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>45831.70327546296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>45715.32840277778</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>45371.56891203704</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44921</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>45145.90166666666</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>45923.46449074074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>45352.31292824074</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>45228.75835648148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>45608.5525</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>45923.46226851852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>45833.65425925926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>45832.57881944445</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>45833.39313657407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>45258</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45632.49377314815</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>45632.50561342593</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45924.8566087963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44914.55465277778</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>45538</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45716.62706018519</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>44743.63931712963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45835.60259259259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45929.5547337963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45834.49287037037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>45835.57680555555</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>45559.37751157407</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45547.54277777778</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>45839.54353009259</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>45594.44408564815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>45929.92255787037</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>45930.69873842593</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>45317</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>45930.91256944444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>45930.91648148148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>45933.38829861111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>45078.43299768519</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45078.43392361111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>45932</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44641</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>45254.48444444445</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>45734.35563657407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>45932</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>45839.50266203703</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>45716.48494212963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>45716.49273148148</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45716.47709490741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>45716.65282407407</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45372.50484953704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>45251.33616898148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21626,7 +21626,7 @@
         <v>45841.33027777778</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>44383.6890162037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         <v>45842</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>45440</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>45938.57505787037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>44545.80055555556</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21968,7 +21968,7 @@
         <v>45140.77881944444</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>45842.39072916667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>45842.31827546296</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>45842.37513888889</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>45529.48743055556</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>45842.37927083333</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>45842.38234953704</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>45842.38695601852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>45111</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>45944.53962962963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>45348.42112268518</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>45845.39126157408</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>45233</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>45233</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>45945.37453703704</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>45846.55724537037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>45945.35819444444</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>45805.65649305555</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>45945.32269675926</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>44523</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>45211.64909722222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>45215.5349074074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>45946.5049074074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>45947.28266203704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>45632.45395833333</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>45947.61274305556</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>45947.62452546296</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>45629.47450231481</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>45852.78871527778</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>45853.67818287037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45726.52251157408</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45170.58003472222</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>45726.50618055555</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>45854.61896990741</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>45839.58186342593</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>45854.61559027778</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44979.31732638889</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45819.6612962963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45951.3629050926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45916.64810185185</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45581.29194444444</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45763.79082175926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>45763.7996412037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>45792.55155092593</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>45728.67893518518</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>45757.31876157408</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>45630.3771412037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>45812.94432870371</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>45252.40496527778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>45952.35865740741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>45953.34363425926</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>45089.71939814815</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>45631.78876157408</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>45608.54846064815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>45581.28953703704</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45867.34890046297</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>45866.39836805555</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>45734.3918287037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>45726.49561342593</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>45954.35844907408</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>45873.49777777777</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>45211.64829861111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>45728</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45728</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45856</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44245</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>45215</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>45376.66356481481</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>45134</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>45635.65861111111</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44316</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45874.6512962963</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>45154.441875</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44434</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>45874.64729166667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>45959.60402777778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>45958.35313657407</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>45959.52787037037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>45833.59498842592</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>45373.37761574074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>45373.38342592592</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>45384.54230324074</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>45084</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>45010.41703703703</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>45880</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>45644</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45819.6641087963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45476.48375</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45966.46200231482</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45883.47663194445</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45966.66572916666</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45967.3860300926</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45883.65811342592</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45883.70913194444</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45966.63927083334</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45631.80012731482</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45355.43185185185</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45355.44435185185</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>45529.48386574074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         <v>45883.46064814815</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>45882.64614583334</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27879,7 +27879,7 @@
         <v>45969.35258101852</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27936,7 +27936,7 @@
         <v>45969.36664351852</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27993,7 +27993,7 @@
         <v>44883.38564814815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28050,7 +28050,7 @@
         <v>45973.4650462963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>44943.28924768518</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45589.68910879629</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45010.45023148148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45286.74935185185</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45181.80498842592</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>45887.61657407408</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>45887.53386574074</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>45271.89012731481</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>45887.34725694444</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>46020.35215277778</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>46020.33778935186</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>46020.34120370371</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>45012</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>45085</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>45982</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44543</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44865</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>45771.54695601852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45048.34269675926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45982</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>45533.54564814815</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45001</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45986</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29495,7 +29495,7 @@
         <v>45282.32709490741</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29552,7 +29552,7 @@
         <v>45733.56050925926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29609,7 +29609,7 @@
         <v>44403</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>46030.62481481482</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45273</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45273.43924768519</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>46030.63140046296</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>45706.59630787037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>45612.42126157408</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>45615.32158564815</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>45250.99255787037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>45250.99520833333</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>45251.35104166667</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>45546.38291666667</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>45992.62179398148</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>45180.87385416667</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>45616.53303240741</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>45539.4634375</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>45608.66239583334</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30583,7 +30583,7 @@
         <v>45311.62662037037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30640,7 +30640,7 @@
         <v>46035.55988425926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30697,7 +30697,7 @@
         <v>45308</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         <v>45384.89954861111</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>45992.60458333333</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30873,7 +30873,7 @@
         <v>46035.54008101852</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30930,7 +30930,7 @@
         <v>46035.55722222223</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30987,7 +30987,7 @@
         <v>45992</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31049,7 +31049,7 @@
         <v>45992.60956018518</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>45374.78101851852</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31168,7 +31168,7 @@
         <v>45992.61700231482</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45706.78021990741</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>46037.69407407408</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45211.65987268519</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45012.55712962963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45314</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45995.60241898148</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>45995.60341435186</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>46037.51976851852</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>46037.51667824074</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31743,7 +31743,7 @@
         <v>45999.45065972222</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31800,7 +31800,7 @@
         <v>45999.70637731482</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>45707.45516203704</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45303.5246412037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>45653.59204861111</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45653.59679398148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45187</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>45716.65662037037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45716.65777777778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>46038.32458333333</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>46038.32899305555</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44942</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>46041.36222222223</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45700.4034837963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>46038.29952546296</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45061</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45999.45556712963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45999.69384259259</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>44897</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>44977.46348379629</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32960,7 +32960,7 @@
         <v>46000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45628</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>44309</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>46000</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33198,7 +33198,7 @@
         <v>45352.31188657408</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33260,7 +33260,7 @@
         <v>46000</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33322,7 +33322,7 @@
         <v>45513.67152777778</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33379,7 +33379,7 @@
         <v>45166</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33436,7 +33436,7 @@
         <v>46002.61063657407</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33493,7 +33493,7 @@
         <v>45680.33516203704</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33550,7 +33550,7 @@
         <v>45191</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33607,7 +33607,7 @@
         <v>44853.81195601852</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33664,7 +33664,7 @@
         <v>45251.34717592593</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>46045.46387731482</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33778,7 +33778,7 @@
         <v>45589.69603009259</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33835,7 +33835,7 @@
         <v>44855</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33892,7 +33892,7 @@
         <v>44942</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33949,7 +33949,7 @@
         <v>45680.72692129629</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34006,7 +34006,7 @@
         <v>46005.46197916667</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34063,7 +34063,7 @@
         <v>45695.32108796296</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34120,7 +34120,7 @@
         <v>45462.69741898148</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>46007.72899305556</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34234,7 +34234,7 @@
         <v>45412.71516203704</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         <v>46049</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34348,7 +34348,7 @@
         <v>45113.4478125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>45421.47430555556</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>45558.62405092592</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34519,7 +34519,7 @@
         <v>45359.30814814815</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34576,7 +34576,7 @@
         <v>45090</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34633,7 +34633,7 @@
         <v>45567.62038194444</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34690,7 +34690,7 @@
         <v>45268.42212962963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34747,7 +34747,7 @@
         <v>44294</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34804,7 +34804,7 @@
         <v>45812</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34861,7 +34861,7 @@
         <v>46052.46678240741</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34918,7 +34918,7 @@
         <v>44930.4346875</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34975,7 +34975,7 @@
         <v>44476.32795138889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35032,7 +35032,7 @@
         <v>46013.3402662037</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35089,7 +35089,7 @@
         <v>46052.43711805555</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35146,7 +35146,7 @@
         <v>46013.42341435186</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35203,7 +35203,7 @@
         <v>45698.48871527778</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35260,7 +35260,7 @@
         <v>45177.47043981482</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45680.59795138889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>44986</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>44234</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35498,7 +35498,7 @@
         <v>45175</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>45677.64241898148</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35612,7 +35612,7 @@
         <v>45462.72221064815</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35669,7 +35669,7 @@
         <v>45081</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>46016.470625</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>45166.64127314815</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35840,7 +35840,7 @@
         <v>45595.89636574074</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35897,7 +35897,7 @@
         <v>44942</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35954,7 +35954,7 @@
         <v>45391.3859837963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36011,7 +36011,7 @@
         <v>45373.36293981481</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>45373.37415509259</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>45155.3446875</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36192,7 +36192,7 @@
         <v>45738.63730324074</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36249,7 +36249,7 @@
         <v>46059.36255787037</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>46059.36332175926</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>45564.98079861111</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36420,7 +36420,7 @@
         <v>45010.45270833333</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36477,7 +36477,7 @@
         <v>45719</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36534,7 +36534,7 @@
         <v>45113.4787037037</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36591,7 +36591,7 @@
         <v>45214.44184027778</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36648,7 +36648,7 @@
         <v>45217</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36705,7 +36705,7 @@
         <v>45156</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36762,7 +36762,7 @@
         <v>44942</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36819,7 +36819,7 @@
         <v>45539.60321759259</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>45355.44633101852</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>44882.68681712963</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45175</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>45076</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>45076</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>45733.67344907407</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>45653.58763888889</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44526.55567129629</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37394,7 +37394,7 @@
         <v>44386.50340277778</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37451,7 +37451,7 @@
         <v>45612.43539351852</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37508,7 +37508,7 @@
         <v>45679.60049768518</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37565,7 +37565,7 @@
         <v>45625.869375</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37622,7 +37622,7 @@
         <v>44816.48018518519</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37679,7 +37679,7 @@
         <v>45680.60165509259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37741,7 +37741,7 @@
         <v>45222.70064814815</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37798,7 +37798,7 @@
         <v>45211.66349537037</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37855,7 +37855,7 @@
         <v>45435.48994212963</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37912,7 +37912,7 @@
         <v>45435.49695601852</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37969,7 +37969,7 @@
         <v>45435.50355324074</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38026,7 +38026,7 @@
         <v>44911</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38083,7 +38083,7 @@
         <v>45748</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38140,7 +38140,7 @@
         <v>45378.73694444444</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38197,7 +38197,7 @@
         <v>45141.58421296296</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38254,7 +38254,7 @@
         <v>44992.58211805556</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38311,7 +38311,7 @@
         <v>44992.62568287037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38368,7 +38368,7 @@
         <v>45202</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38425,7 +38425,7 @@
         <v>45280</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38482,7 +38482,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         <v>45722.41969907407</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38596,7 +38596,7 @@
         <v>45588.89078703704</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38653,7 +38653,7 @@
         <v>45246</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38710,7 +38710,7 @@
         <v>44865</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38767,7 +38767,7 @@
         <v>44698</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38824,7 +38824,7 @@
         <v>45189.7607175926</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38881,7 +38881,7 @@
         <v>45352.31738425926</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38943,7 +38943,7 @@
         <v>44687.24572916667</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39000,7 +39000,7 @@
         <v>44347.36586805555</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39057,7 +39057,7 @@
         <v>45467.60365740741</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39114,7 +39114,7 @@
         <v>45211.64981481482</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>45187.68246527778</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39228,7 +39228,7 @@
         <v>45450.54707175926</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         <v>45253.55111111111</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>45051.61240740741</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39399,7 +39399,7 @@
         <v>45215.55851851852</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39456,7 +39456,7 @@
         <v>45384.54092592592</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39518,7 +39518,7 @@
         <v>45078</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39575,7 +39575,7 @@
         <v>45574.31337962963</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39632,7 +39632,7 @@
         <v>45531.74303240741</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39689,7 +39689,7 @@
         <v>44992</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         <v>45244.49783564815</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39803,7 +39803,7 @@
         <v>45687.49402777778</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39860,7 +39860,7 @@
         <v>44858</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39917,7 +39917,7 @@
         <v>45539.46086805555</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39974,7 +39974,7 @@
         <v>45609.32234953704</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40031,7 +40031,7 @@
         <v>44531</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>45733.6841087963</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40145,7 +40145,7 @@
         <v>44245.60391203704</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40202,7 +40202,7 @@
         <v>45049</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40259,7 +40259,7 @@
         <v>45679</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40316,7 +40316,7 @@
         <v>44859.32368055556</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40373,7 +40373,7 @@
         <v>44531.66638888889</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40430,7 +40430,7 @@
         <v>45747</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40487,7 +40487,7 @@
         <v>45167.41748842593</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40544,7 +40544,7 @@
         <v>45734</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40601,7 +40601,7 @@
         <v>45446</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40658,7 +40658,7 @@
         <v>45616.53173611111</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40715,7 +40715,7 @@
         <v>45722.42119212963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40772,7 +40772,7 @@
         <v>45600.29040509259</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44335</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40891,7 +40891,7 @@
         <v>45240</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40953,7 +40953,7 @@
         <v>44587</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>45770.48070601852</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44582.30452546296</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41124,7 +41124,7 @@
         <v>44482.3475</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41181,7 +41181,7 @@
         <v>45759.41274305555</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41238,7 +41238,7 @@
         <v>45531.48230324074</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41295,7 +41295,7 @@
         <v>45680.59917824074</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>44897</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41414,7 +41414,7 @@
         <v>44449</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41471,7 +41471,7 @@
         <v>44273.30824074074</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41528,7 +41528,7 @@
         <v>45583.47490740741</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41585,7 +41585,7 @@
         <v>45303</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41642,7 +41642,7 @@
         <v>45594.56443287037</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41699,7 +41699,7 @@
         <v>45469.71447916667</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41761,7 +41761,7 @@
         <v>45401.66519675926</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41818,7 +41818,7 @@
         <v>45092.34288194445</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41875,7 +41875,7 @@
         <v>45092.46023148148</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41932,7 +41932,7 @@
         <v>45103.70189814815</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41989,7 +41989,7 @@
         <v>45642.5609375</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42051,7 +42051,7 @@
         <v>44760.615</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42108,7 +42108,7 @@
         <v>44526</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42165,7 +42165,7 @@
         <v>45268.57665509259</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42222,7 +42222,7 @@
         <v>45440.59321759259</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42279,7 +42279,7 @@
         <v>45244.48413194445</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42336,7 +42336,7 @@
         <v>45051.45070601852</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42393,7 +42393,7 @@
         <v>45176.47287037037</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42450,7 +42450,7 @@
         <v>45716.48269675926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42507,7 +42507,7 @@
         <v>45716.49100694444</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42564,7 +42564,7 @@
         <v>44921.82634259259</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42621,7 +42621,7 @@
         <v>44928.49351851852</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42678,7 +42678,7 @@
         <v>44568.79167824074</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42735,7 +42735,7 @@
         <v>44634</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42792,7 +42792,7 @@
         <v>44592.57989583333</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42849,7 +42849,7 @@
         <v>44777.38348379629</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42906,7 +42906,7 @@
         <v>45615.30976851852</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42963,7 +42963,7 @@
         <v>45615.31185185185</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43020,7 +43020,7 @@
         <v>44942</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43077,7 +43077,7 @@
         <v>44942</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43134,7 +43134,7 @@
         <v>45273.43633101852</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43191,7 +43191,7 @@
         <v>45497.63172453704</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43248,7 +43248,7 @@
         <v>45217</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43305,7 +43305,7 @@
         <v>44621.66988425926</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43362,7 +43362,7 @@
         <v>44922</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45169.30215277777</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>44860.64129629629</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45733.40694444445</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43590,7 +43590,7 @@
         <v>45154.43976851852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43647,7 +43647,7 @@
         <v>45771.54863425926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43709,7 +43709,7 @@
         <v>45537.46707175926</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43766,7 +43766,7 @@
         <v>44636.55400462963</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43823,7 +43823,7 @@
         <v>44529.49450231482</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43880,7 +43880,7 @@
         <v>44508</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43937,7 +43937,7 @@
         <v>44858</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43994,7 +43994,7 @@
         <v>45776.86851851852</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44051,7 +44051,7 @@
         <v>45663</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44108,7 +44108,7 @@
         <v>45169.53290509259</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44165,7 +44165,7 @@
         <v>45624.65733796296</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44222,7 +44222,7 @@
         <v>45781.41818287037</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44279,7 +44279,7 @@
         <v>45781.41056712963</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>45407.46351851852</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44393,7 +44393,7 @@
         <v>45827.49856481481</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44450,7 +44450,7 @@
         <v>45719.47412037037</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44507,7 +44507,7 @@
         <v>45519.60221064815</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44564,7 +44564,7 @@
         <v>45527.3153125</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44621,7 +44621,7 @@
         <v>45638.46824074074</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -575,7 +575,7 @@
         <v>46041.37991898148</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45215</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44889.44659722222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45386</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44830</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44424.69891203703</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45763.78657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45818.65486111111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45631.8084375</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45218</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>45183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44882.65143518519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>45742.78724537037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>45716.65045138889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44244.67355324074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44609.47314814815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44525.50052083333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44785</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44785</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44477</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44463.35791666667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44463.35958333333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44473.81864583334</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>44445</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44280</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>44351.48209490741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>44306.68837962963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44327.57842592592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44315</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44245</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44245.62944444444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44251</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44438</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44515</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44286</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44802.57482638889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44749.58270833334</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44802.57569444444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44785</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44798.3397337963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44474.50116898148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44350.60737268518</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44523</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44428.87</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44245.62523148148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44279.38944444444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44245.37445601852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44321</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44245</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44245</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44385.32215277778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44503.48087962963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44785</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>44665</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44462.89869212963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44846.67137731481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44245</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44397</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44460.73518518519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>44847.48289351852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>44498.27439814815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>44274.84170138889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44427</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44427.31769675926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>44344</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44690.88424768519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>44413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>44400.7940162037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>44448.62939814815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>44383.37193287037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>44377.64809027778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>44504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>44453.64589120371</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>44602.59478009259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44245.62716435185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>44397</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>44512.3278587963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>44621.38096064814</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>44253</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>44448</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>44609.87715277778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>44292</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44344.42061342593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>44487</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>44721.47574074074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>44587</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44386.74578703703</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44802</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>44474.34982638889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>44509.46288194445</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>44431</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>44427</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>44427.31667824074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>44739</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>44463.69890046296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>44733.53642361111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>44551</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>44278</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>44342.36506944444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44621.38295138889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44854.6284837963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44854</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>44680.80325231481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>44524</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44690.86459490741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44690.86802083333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44460.3700462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44477</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44865</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44721.47675925926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44685.3320949074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44326.44072916666</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44312.66563657407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44474.50032407408</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44327.57980324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44643.5586574074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44596</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44266.76030092593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>44510</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>44522</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>44362.73894675926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>44251</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>44636</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44643.55725694444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>44657</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44327.58231481481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44433</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44491.52920138889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44831</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44831</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>45433.33723379629</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>45209</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>44292.58516203704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>45244.59032407407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>45348</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>45457</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>45098</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>45062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>45610.50424768519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>45734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>45735.55299768518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>45735.555</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>44496.59342592592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>45205.54072916666</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44826.33715277778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44962</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44610.53254629629</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>45254.48099537037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>45469.59653935185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>45543.72571759259</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>45578</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>45554</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>45133.66960648148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>45575.56337962963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45049.36695601852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>45457</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>45457</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>45680.59315972222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>45680.59511574074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>45133.66702546296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44473.86554398148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>45175</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>45737.26609953704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>45359.30721064815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>45769</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>45769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44496</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>45469.70945601852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>45566.67163194445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45222.69469907408</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>45222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>45720.21070601852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>45309.33142361111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44686.47582175926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>44994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>44876.35701388889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45680</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45051</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45799.30594907407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>45103.70469907407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>45638.67876157408</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45638.91269675926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45187.60745370371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45405.59800925926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44511.80325231481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44511.87037037037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45702.37107638889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>45315.51804398148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44817</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>45589.48217592593</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>45531</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>45560.76623842592</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>45460.54523148148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>45663.86024305555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>45805.6447337963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45805.66611111111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>45804.36956018519</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45240</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45805.65143518519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45805.65680555555</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>45350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44998</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>45693.54733796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>45804.3675</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>45804.49628472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>45804.36267361111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>45804.4793287037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45884.30076388889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45884.31721064815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44853.81002314815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45303.45996527778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45290</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45180.86666666667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         <v>45888.53797453704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>45888.66755787037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>45586</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>45637.55135416667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>45443.56369212963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>44935.34144675926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>45888.51924768519</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>45888.46113425926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44979.46550925926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>44859</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>45891.64903935185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>45891.63444444445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>45684.32357638889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>45612.66797453703</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>45679</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>45895.61116898148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>45817.50908564815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>45817.63480324074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>45771.45237268518</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>45726.55761574074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45897.68016203704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45897.44570601852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45015.31724537037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45896.68458333334</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>45771.54563657408</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>45898.47987268519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15338,7 +15338,7 @@
         <v>45512.42822916667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>45818.39106481482</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>45548.59546296296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>45818.60510416667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>45875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>45695.35372685185</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>45462.60291666666</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>45187.60013888889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>45901.3906712963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>45771.54145833333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44958.84677083333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>45748</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44320.42920138889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45328.43439814815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>45903.57832175926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45902.60076388889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44861</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>45062.49423611111</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45414.31873842593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44315</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44315</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45855.4741087963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>45909.70618055556</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>45681.46109953704</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>45824</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>45911.42127314815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>45911.47451388889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>45911.57913194445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>45911.65790509259</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>45827.60109953704</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>45441</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45460</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>45915.49127314815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>45716.64879629629</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45090.3316550926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44994</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>45912.35086805555</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>45335.41604166666</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>44994.69185185185</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>45042.29704861111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45716.60950231482</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>45680.71556712963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45334.8496875</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>45917.29938657407</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>45916.63920138889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>45916.6452662037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>45917.29707175926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>45884</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>45373.3674537037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>45917.29179398148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>45916.67770833334</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>45916.69076388889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>45831.66119212963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>45916.71357638889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45078</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>45681.45844907407</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45068.71310185185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>45831</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>45831.70327546296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>45715.32840277778</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>45371.56891203704</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44921</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>45145.90166666666</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>45923.46449074074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>45352.31292824074</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>45228.75835648148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>45608.5525</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>45923.46226851852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>45833.65425925926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>45832.57881944445</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>45833.39313657407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>45258</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45632.49377314815</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>45632.50561342593</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45924.8566087963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44914.55465277778</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>45538</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45716.62706018519</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>44743.63931712963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45835.60259259259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45929.5547337963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45834.49287037037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>45835.57680555555</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>45559.37751157407</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45547.54277777778</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>45839.54353009259</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>45594.44408564815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>45929.92255787037</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>45930.69873842593</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>45317</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>45930.91256944444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>45930.91648148148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>45933.38829861111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>45078.43299768519</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45078.43392361111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>45932</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44641</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>45254.48444444445</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>45734.35563657407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>45932</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>45839.50266203703</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>45716.48494212963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>45716.49273148148</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45716.47709490741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>45716.65282407407</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45372.50484953704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>45251.33616898148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21626,7 +21626,7 @@
         <v>45841.33027777778</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>44383.6890162037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         <v>45842</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>45440</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>45938.57505787037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>44545.80055555556</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21968,7 +21968,7 @@
         <v>45140.77881944444</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>45842.39072916667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>45842.31827546296</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>45842.37513888889</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>45529.48743055556</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>45842.37927083333</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>45842.38234953704</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>45842.38695601852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>45111</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>45944.53962962963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>45348.42112268518</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>45845.39126157408</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>45233</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>45233</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>45945.37453703704</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>45846.55724537037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>45945.35819444444</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>45805.65649305555</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>45945.32269675926</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>44523</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>45211.64909722222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>45215.5349074074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>45946.5049074074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>45947.28266203704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>45632.45395833333</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>45947.61274305556</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>45947.62452546296</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>45629.47450231481</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>45852.78871527778</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>45853.67818287037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45726.52251157408</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45170.58003472222</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>45726.50618055555</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>45854.61896990741</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>45839.58186342593</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>45854.61559027778</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44979.31732638889</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45819.6612962963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45951.3629050926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45916.64810185185</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45581.29194444444</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45763.79082175926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>45763.7996412037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>45792.55155092593</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>45728.67893518518</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>45757.31876157408</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>45630.3771412037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>45812.94432870371</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>45252.40496527778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>45952.35865740741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>45006</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>45953.34363425926</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>45089.71939814815</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>45631.78876157408</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>45608.54846064815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>45581.28953703704</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45867.34890046297</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>45866.39836805555</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>45734.3918287037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>45726.49561342593</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>45954.35844907408</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>45873.49777777777</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>45211.64829861111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>45728</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45728</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45856</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44245</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>45215</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>45376.66356481481</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>45134</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>45635.65861111111</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44316</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45874.6512962963</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>45154.441875</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44434</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>45874.64729166667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>45959.60402777778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>45958.35313657407</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>45959.52787037037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>45833.59498842592</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>45373.37761574074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>45373.38342592592</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>45384.54230324074</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>45084</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>45010.41703703703</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>45880</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>45644</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45819.6641087963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45476.48375</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45966.46200231482</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45883.47663194445</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45966.66572916666</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45967.3860300926</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45883.65811342592</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45883.70913194444</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45966.63927083334</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45631.80012731482</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45355.43185185185</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45355.44435185185</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>45529.48386574074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         <v>45883.46064814815</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>45882.64614583334</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27879,7 +27879,7 @@
         <v>45969.35258101852</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27936,7 +27936,7 @@
         <v>45969.36664351852</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27993,7 +27993,7 @@
         <v>44883.38564814815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28050,7 +28050,7 @@
         <v>45973.4650462963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>44943.28924768518</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45589.68910879629</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45010.45023148148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45286.74935185185</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45181.80498842592</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>45887.61657407408</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>45887.53386574074</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>45271.89012731481</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>45887.34725694444</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>46020.35215277778</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>46020.33778935186</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>46020.34120370371</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>45012</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>45085</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>45982</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44543</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44865</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>45771.54695601852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45048.34269675926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45982</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>45533.54564814815</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45001</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45986</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29495,7 +29495,7 @@
         <v>45282.32709490741</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29552,7 +29552,7 @@
         <v>45733.56050925926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29609,7 +29609,7 @@
         <v>44403</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>46030.62481481482</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45273</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45273.43924768519</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>46030.63140046296</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>45706.59630787037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>45612.42126157408</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>45615.32158564815</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>45250.99255787037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>45250.99520833333</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>45251.35104166667</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>45546.38291666667</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>45992.62179398148</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>45180.87385416667</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>45616.53303240741</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>45539.4634375</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>45608.66239583334</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30583,7 +30583,7 @@
         <v>45311.62662037037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30640,7 +30640,7 @@
         <v>46035.55988425926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30697,7 +30697,7 @@
         <v>45308</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         <v>45384.89954861111</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>45992.60458333333</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30873,7 +30873,7 @@
         <v>46035.54008101852</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30930,7 +30930,7 @@
         <v>46035.55722222223</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30987,7 +30987,7 @@
         <v>45992</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31049,7 +31049,7 @@
         <v>45992.60956018518</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>45374.78101851852</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31168,7 +31168,7 @@
         <v>45992.61700231482</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45706.78021990741</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>46037.69407407408</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45211.65987268519</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45012.55712962963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45314</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45995.60241898148</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>45995.60341435186</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>46037.51976851852</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>46037.51667824074</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31743,7 +31743,7 @@
         <v>45999.45065972222</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31800,7 +31800,7 @@
         <v>45999.70637731482</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>45707.45516203704</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45303.5246412037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>45653.59204861111</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45653.59679398148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45187</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>45716.65662037037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45716.65777777778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>46038.32458333333</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>46038.32899305555</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44942</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>46041.36222222223</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45700.4034837963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>46038.29952546296</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45061</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45999.45556712963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45999.69384259259</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>44897</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>44977.46348379629</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32960,7 +32960,7 @@
         <v>46000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45628</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>44309</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>46000</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33198,7 +33198,7 @@
         <v>45352.31188657408</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33260,7 +33260,7 @@
         <v>46000</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33322,7 +33322,7 @@
         <v>45513.67152777778</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33379,7 +33379,7 @@
         <v>45166</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33436,7 +33436,7 @@
         <v>46002.61063657407</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33493,7 +33493,7 @@
         <v>45680.33516203704</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33550,7 +33550,7 @@
         <v>45191</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33607,7 +33607,7 @@
         <v>44853.81195601852</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33664,7 +33664,7 @@
         <v>45251.34717592593</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>46045.46387731482</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33778,7 +33778,7 @@
         <v>45589.69603009259</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33835,7 +33835,7 @@
         <v>44855</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33892,7 +33892,7 @@
         <v>44942</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33949,7 +33949,7 @@
         <v>45680.72692129629</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34006,7 +34006,7 @@
         <v>46005.46197916667</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34063,7 +34063,7 @@
         <v>45695.32108796296</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34120,7 +34120,7 @@
         <v>45462.69741898148</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>46007.72899305556</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34234,7 +34234,7 @@
         <v>45412.71516203704</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         <v>46049</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34348,7 +34348,7 @@
         <v>45113.4478125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>45421.47430555556</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>45558.62405092592</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34519,7 +34519,7 @@
         <v>45359.30814814815</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34576,7 +34576,7 @@
         <v>45090</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34633,7 +34633,7 @@
         <v>45567.62038194444</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34690,7 +34690,7 @@
         <v>45268.42212962963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34747,7 +34747,7 @@
         <v>44294</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34804,7 +34804,7 @@
         <v>45812</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34861,7 +34861,7 @@
         <v>46052.46678240741</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34918,7 +34918,7 @@
         <v>44930.4346875</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34975,7 +34975,7 @@
         <v>44476.32795138889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35032,7 +35032,7 @@
         <v>46013.3402662037</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35089,7 +35089,7 @@
         <v>46052.43711805555</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35146,7 +35146,7 @@
         <v>46013.42341435186</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35203,7 +35203,7 @@
         <v>45698.48871527778</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35260,7 +35260,7 @@
         <v>45177.47043981482</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45680.59795138889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>44986</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>44234</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35498,7 +35498,7 @@
         <v>45175</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>45677.64241898148</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35612,7 +35612,7 @@
         <v>45462.72221064815</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35669,7 +35669,7 @@
         <v>45081</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>46016.470625</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>45166.64127314815</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35840,7 +35840,7 @@
         <v>45595.89636574074</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35897,7 +35897,7 @@
         <v>44942</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35954,7 +35954,7 @@
         <v>45391.3859837963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36011,7 +36011,7 @@
         <v>45373.36293981481</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>45373.37415509259</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>45155.3446875</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36192,7 +36192,7 @@
         <v>45738.63730324074</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36249,7 +36249,7 @@
         <v>46059.36255787037</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>46059.36332175926</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>45564.98079861111</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36420,7 +36420,7 @@
         <v>45010.45270833333</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36477,7 +36477,7 @@
         <v>45719</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36534,7 +36534,7 @@
         <v>45113.4787037037</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36591,7 +36591,7 @@
         <v>45214.44184027778</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36648,7 +36648,7 @@
         <v>45217</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36705,7 +36705,7 @@
         <v>45156</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36762,7 +36762,7 @@
         <v>44942</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36819,7 +36819,7 @@
         <v>45539.60321759259</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>45355.44633101852</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>44882.68681712963</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45175</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>45076</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>45076</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>45733.67344907407</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>45653.58763888889</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44526.55567129629</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37394,7 +37394,7 @@
         <v>44386.50340277778</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37451,7 +37451,7 @@
         <v>45612.43539351852</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37508,7 +37508,7 @@
         <v>45679.60049768518</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37565,7 +37565,7 @@
         <v>45625.869375</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37622,7 +37622,7 @@
         <v>44816.48018518519</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37679,7 +37679,7 @@
         <v>45680.60165509259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37741,7 +37741,7 @@
         <v>45222.70064814815</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37798,7 +37798,7 @@
         <v>45211.66349537037</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37855,7 +37855,7 @@
         <v>45435.48994212963</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37912,7 +37912,7 @@
         <v>45435.49695601852</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37969,7 +37969,7 @@
         <v>45435.50355324074</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38026,7 +38026,7 @@
         <v>44911</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38083,7 +38083,7 @@
         <v>45748</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38140,7 +38140,7 @@
         <v>45378.73694444444</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38197,7 +38197,7 @@
         <v>45141.58421296296</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38254,7 +38254,7 @@
         <v>44992.58211805556</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38311,7 +38311,7 @@
         <v>44992.62568287037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38368,7 +38368,7 @@
         <v>45202</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38425,7 +38425,7 @@
         <v>45280</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38482,7 +38482,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         <v>45722.41969907407</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38596,7 +38596,7 @@
         <v>45588.89078703704</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38653,7 +38653,7 @@
         <v>45246</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38710,7 +38710,7 @@
         <v>44865</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38767,7 +38767,7 @@
         <v>44698</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38824,7 +38824,7 @@
         <v>45189.7607175926</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38881,7 +38881,7 @@
         <v>45352.31738425926</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38943,7 +38943,7 @@
         <v>44687.24572916667</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39000,7 +39000,7 @@
         <v>44347.36586805555</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39057,7 +39057,7 @@
         <v>45467.60365740741</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39114,7 +39114,7 @@
         <v>45211.64981481482</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>45187.68246527778</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39228,7 +39228,7 @@
         <v>45450.54707175926</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         <v>45253.55111111111</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>45051.61240740741</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39399,7 +39399,7 @@
         <v>45215.55851851852</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39456,7 +39456,7 @@
         <v>45384.54092592592</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39518,7 +39518,7 @@
         <v>45078</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39575,7 +39575,7 @@
         <v>45574.31337962963</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39632,7 +39632,7 @@
         <v>45531.74303240741</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39689,7 +39689,7 @@
         <v>44992</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         <v>45244.49783564815</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39803,7 +39803,7 @@
         <v>45687.49402777778</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39860,7 +39860,7 @@
         <v>44858</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39917,7 +39917,7 @@
         <v>45539.46086805555</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39974,7 +39974,7 @@
         <v>45609.32234953704</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40031,7 +40031,7 @@
         <v>44531</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>45733.6841087963</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40145,7 +40145,7 @@
         <v>44245.60391203704</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40202,7 +40202,7 @@
         <v>45049</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40259,7 +40259,7 @@
         <v>45679</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40316,7 +40316,7 @@
         <v>44859.32368055556</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40373,7 +40373,7 @@
         <v>44531.66638888889</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40430,7 +40430,7 @@
         <v>45747</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40487,7 +40487,7 @@
         <v>45167.41748842593</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40544,7 +40544,7 @@
         <v>45734</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40601,7 +40601,7 @@
         <v>45446</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40658,7 +40658,7 @@
         <v>45616.53173611111</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40715,7 +40715,7 @@
         <v>45722.42119212963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40772,7 +40772,7 @@
         <v>45600.29040509259</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44335</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40891,7 +40891,7 @@
         <v>45240</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40953,7 +40953,7 @@
         <v>44587</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>45770.48070601852</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44582.30452546296</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41124,7 +41124,7 @@
         <v>44482.3475</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41181,7 +41181,7 @@
         <v>45759.41274305555</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41238,7 +41238,7 @@
         <v>45531.48230324074</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41295,7 +41295,7 @@
         <v>45680.59917824074</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>44897</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41414,7 +41414,7 @@
         <v>44449</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41471,7 +41471,7 @@
         <v>44273.30824074074</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41528,7 +41528,7 @@
         <v>45583.47490740741</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41585,7 +41585,7 @@
         <v>45303</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41642,7 +41642,7 @@
         <v>45594.56443287037</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41699,7 +41699,7 @@
         <v>45469.71447916667</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41761,7 +41761,7 @@
         <v>45401.66519675926</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41818,7 +41818,7 @@
         <v>45092.34288194445</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41875,7 +41875,7 @@
         <v>45092.46023148148</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41932,7 +41932,7 @@
         <v>45103.70189814815</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41989,7 +41989,7 @@
         <v>45642.5609375</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42051,7 +42051,7 @@
         <v>44760.615</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42108,7 +42108,7 @@
         <v>44526</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42165,7 +42165,7 @@
         <v>45268.57665509259</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42222,7 +42222,7 @@
         <v>45440.59321759259</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42279,7 +42279,7 @@
         <v>45244.48413194445</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42336,7 +42336,7 @@
         <v>45051.45070601852</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42393,7 +42393,7 @@
         <v>45176.47287037037</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42450,7 +42450,7 @@
         <v>45716.48269675926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42507,7 +42507,7 @@
         <v>45716.49100694444</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42564,7 +42564,7 @@
         <v>44921.82634259259</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42621,7 +42621,7 @@
         <v>44928.49351851852</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42678,7 +42678,7 @@
         <v>44568.79167824074</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42735,7 +42735,7 @@
         <v>44634</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42792,7 +42792,7 @@
         <v>44592.57989583333</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42849,7 +42849,7 @@
         <v>44777.38348379629</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42906,7 +42906,7 @@
         <v>45615.30976851852</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42963,7 +42963,7 @@
         <v>45615.31185185185</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43020,7 +43020,7 @@
         <v>44942</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43077,7 +43077,7 @@
         <v>44942</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43134,7 +43134,7 @@
         <v>45273.43633101852</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43191,7 +43191,7 @@
         <v>45497.63172453704</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43248,7 +43248,7 @@
         <v>45217</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43305,7 +43305,7 @@
         <v>44621.66988425926</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43362,7 +43362,7 @@
         <v>44922</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45169.30215277777</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>44860.64129629629</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45733.40694444445</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43590,7 +43590,7 @@
         <v>45154.43976851852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43647,7 +43647,7 @@
         <v>45771.54863425926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43709,7 +43709,7 @@
         <v>45537.46707175926</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43766,7 +43766,7 @@
         <v>44636.55400462963</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43823,7 +43823,7 @@
         <v>44529.49450231482</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43880,7 +43880,7 @@
         <v>44508</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43937,7 +43937,7 @@
         <v>44858</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43994,7 +43994,7 @@
         <v>45776.86851851852</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44051,7 +44051,7 @@
         <v>45663</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44108,7 +44108,7 @@
         <v>45169.53290509259</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44165,7 +44165,7 @@
         <v>45624.65733796296</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44222,7 +44222,7 @@
         <v>45781.41818287037</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44279,7 +44279,7 @@
         <v>45781.41056712963</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>45407.46351851852</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44393,7 +44393,7 @@
         <v>45827.49856481481</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44450,7 +44450,7 @@
         <v>45719.47412037037</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44507,7 +44507,7 @@
         <v>45519.60221064815</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44564,7 +44564,7 @@
         <v>45527.3153125</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44621,7 +44621,7 @@
         <v>45638.46824074074</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -575,7 +575,7 @@
         <v>46041.37991898148</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45215</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44889.44659722222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45386</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44830</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44424.69891203703</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45763.78657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45818.65486111111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45631.8084375</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45218</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>45183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44882.65143518519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>45742.78724537037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>45716.65045138889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44609.47314814815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44525.50052083333</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44785</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44785</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44473.81864583334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44463.35791666667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44463.35958333333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>44280</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44351.48209490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>44306.68837962963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>44327.57842592592</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44315</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44251</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44286</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44515</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44802.57482638889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44802.57569444444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44785</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44749.58270833334</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44474.50116898148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44350.60737268518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44798.3397337963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44523</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44428.87</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44503</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44279.38944444444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44448</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44385.32215277778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44503.48087962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44785</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44665</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44462.89869212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>44846.67137731481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>44460.73518518519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>44397</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44284</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44847.48289351852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44498.27439814815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44274.84170138889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44427</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44427.31769675926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44690.88424768519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44812</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>44344</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>44413</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>44448.62939814815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>44400.7940162037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44383.37193287037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44377.64809027778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>44447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44602.59478009259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>44397</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>44453.64589120371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>44512.3278587963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>44621.38096064814</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44448</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>44609.87715277778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>44292</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>44344.42061342593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44487</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>44721.47574074074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>44587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>44386.74578703703</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44474.34982638889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>44431</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>44509.46288194445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44427</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44427.31667824074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44463.69890046296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44733.53642361111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>44315</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>44342.36506944444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>44621.38295138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>44854.6284837963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>44854</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>44680.80325231481</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>44524</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>44460.3700462963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>44690.86459490741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>44690.86802083333</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>44477</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44865</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44496</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44721.47675925926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>44525</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>44685.3320949074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44326.44072916666</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44312.66563657407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44474.50032407408</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44434</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44327.57980324074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44643.5586574074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44596</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44266.76030092593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44510</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44522</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44362.73894675926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44251</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44636</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44643.55725694444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44657</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44327.58231481481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44433</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>44831</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>44831</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>44491.52920138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45244.59032407407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45433.33723379629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>45209</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>44292.58516203704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>45062</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>45098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>45348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45457</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>45734</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>44496.59342592592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>45735.55299768518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>45735.555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>45205.54072916666</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>45610.50424768519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>44826.33715277778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>44962</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44610.53254629629</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>45469.59653935185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>45254.48099537037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>45543.72571759259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>45578</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>45554</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>45133.66960648148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>45575.56337962963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>45457</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>45457</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>45049.36695601852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44473.86554398148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>45680.59315972222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>45680.59511574074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45359.30721064815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45175</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45469.70945601852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>45720.21070601852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>45769</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>45769</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>45566.67163194445</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>45222.69469907408</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45133.66702546296</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>45309.33142361111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44876.35701388889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45680</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45638.67876157408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>45638.91269675926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>44686.47582175926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>44994</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45051</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>45187.60745370371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>45103.70469907407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>45315.51804398148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44817</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45240</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>45531</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>45350</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>45693.54733796296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>44853.81002314815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>45737.26609953704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>45303.45996527778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>45586</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>45290</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>45180.86666666667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>45443.56369212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44859</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>45684.32357638889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44935.34144675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>45679</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45771.45237268518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>44979.46550925926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45818.39106481482</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>45548.59546296296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>45818.60510416667</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45695.35372685185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45726.55761574074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45015.31724537037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45560.76623842592</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>45771.54563657408</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>45771.54145833333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>44998</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>45884.30076388889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>45884.31721064815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>45462.60291666666</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45187.60013888889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44958.84677083333</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>45888.53797453704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44320.42920138889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>45888.66755787037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13603,7 +13603,7 @@
         <v>45328.43439814815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         <v>45637.55135416667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>45888.51924768519</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>45888.46113425926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>45824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>45891.64903935185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>45827.60109953704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>45062.49423611111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>45414.31873842593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>45891.63444444445</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>45335.41604166666</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44315</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44315</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>45716.60950231482</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>45895.61116898148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>45334.8496875</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>45831.66119212963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>45831</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45831.70327546296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45681.46109953704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>45897.68016203704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45897.44570601852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>45460</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>45833.65425925926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>45832.57881944445</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>45833.39313657407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>45716.64879629629</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>45896.68458333334</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>45898.47987268519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>45090.3316550926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44994</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>45512.42822916667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44994.69185185185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>45042.29704861111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>45680.71556712963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>45875</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>44897</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45373.3674537037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>45835.60259259259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>45901.3906712963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45834.49287037037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>45078</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>45748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>45681.45844907407</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45835.57680555555</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45068.71310185185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>45839.54353009259</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>45903.57832175926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>45715.32840277778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>45902.60076388889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>45371.56891203704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44921</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44641</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45145.90166666666</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45352.31292824074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>45228.75835648148</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45608.5525</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>45855.4741087963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>45839.50266203703</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>45909.70618055556</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>45258</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>45632.49377314815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>45632.50561342593</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45841.33027777778</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44914.55465277778</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45842</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45538</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45911.42127314815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45911.47451388889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45911.57913194445</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45842.39072916667</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45716.62706018519</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>45911.65790509259</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>45842.31827546296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>45842.37513888889</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45529.48743055556</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44743.63931712963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44503</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>45915.49127314815</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>45842.37927083333</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18312,7 +18312,7 @@
         <v>45842.38234953704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>45842.38695601852</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>45845.39126157408</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>45846.55724537037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>45912.35086805555</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45805.65649305555</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45917.29938657407</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>45916.63920138889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>45916.6452662037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45917.29707175926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>45884</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45559.37751157407</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45917.29179398148</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45916.67770833334</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45547.54277777778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>45916.69076388889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19254,7 +19254,7 @@
         <v>45594.44408564815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>45852.78871527778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>45853.67818287037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45916.71357638889</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45317</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45726.52251157408</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>45726.50618055555</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45078.43299768519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45078.43392361111</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45854.61896990741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>45254.48444444445</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>45839.58186342593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45854.61559027778</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45734.35563657407</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>44979.31732638889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>45819.6612962963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>45581.29194444444</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>45763.79082175926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45763.7996412037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>45923.46449074074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45792.55155092593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>45728.67893518518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>45716.48494212963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45716.49273148148</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>45812.94432870371</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>45923.46226851852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>45716.47709490741</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>45716.65282407407</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>45924.8566087963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>45372.50484953704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>45631.78876157408</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45251.33616898148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45581.28953703704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>45867.34890046297</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45866.39836805555</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>44383.6890162037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>45726.49561342593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>45440</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>45873.49777777777</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>44545.80055555556</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45140.77881944444</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45929.5547337963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45856</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45929.92255787037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45874.6512962963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45930.69873842593</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45930.91256944444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>45111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>45348.42112268518</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>45930.91648148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>45933.38829861111</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22166,7 +22166,7 @@
         <v>45233</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22223,7 +22223,7 @@
         <v>45233</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22280,7 +22280,7 @@
         <v>45874.64729166667</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         <v>45932</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>45833.59498842592</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>44523</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>45211.64909722222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45215.5349074074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45932</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45632.45395833333</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>45880</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
         <v>45629.47450231481</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22850,7 +22850,7 @@
         <v>45644</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>45819.6641087963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22964,7 +22964,7 @@
         <v>45476.48375</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45170.58003472222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45883.47663194445</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45883.65811342592</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45883.70913194444</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45883.46064814815</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45882.64614583334</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45757.31876157408</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45630.3771412037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45252.40496527778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45006</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45938.57505787037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>45089.71939814815</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>45608.54846064815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>45286.74935185185</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>45734.3918287037</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>45211.64829861111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45181.80498842592</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45887.61657407408</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>45728</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>45728</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>45887.53386574074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>45944.53962962963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>45945.37453703704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>45887.34725694444</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>45945.35819444444</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>45215</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>45376.66356481481</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>45134</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>45945.32269675926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>45635.65861111111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44316</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>45946.5049074074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45154.441875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>45947.28266203704</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45947.61274305556</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>45947.62452546296</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44784</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>45951.3629050926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>45916.64810185185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45373.37761574074</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>45373.38342592592</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45384.54230324074</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45084</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>45010.41703703703</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>45952.35865740741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>45953.34363425926</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>45954.35844907408</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45631.80012731482</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>45355.43185185185</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>45355.44435185185</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>45529.48386574074</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44883.38564814815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>45959.60402777778</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>45958.35313657407</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>45959.52787037037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44943.28924768518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45589.68910879629</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45010.45023148148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45271.89012731481</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45966.46200231482</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45966.66572916666</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45967.3860300926</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45966.63927083334</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>44438</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45012</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45969.35258101852</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>45969.36664351852</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44543</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>45973.4650462963</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44865</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>45771.54695601852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>45048.34269675926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>45533.54564814815</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>45001</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>45282.32709490741</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>45733.56050925926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>44403</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>45273</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>45273.43924768519</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>45706.59630787037</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>45982</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>45612.42126157408</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>45615.32158564815</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>45250.99255787037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>45250.99520833333</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>45251.35104166667</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>45546.38291666667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>45180.87385416667</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45616.53303240741</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>45539.4634375</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>45608.66239583334</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>45311.62662037037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>45982</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>45308</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>45384.89954861111</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>45986</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>45374.78101851852</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28719,7 +28719,7 @@
         <v>45706.78021990741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28776,7 +28776,7 @@
         <v>45992.62179398148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>45211.65987268519</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>45012.55712962963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>45314</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>46035.55988425926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>45992.60458333333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>46035.54008101852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>46035.55722222223</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>45992</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>45992.60956018518</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>45707.45516203704</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>45992.61700231482</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>45303.5246412037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>45653.59204861111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>45653.59679398148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29656,7 +29656,7 @@
         <v>45187</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>45716.65662037037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>45716.65777777778</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>46037.69407407408</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44973</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44942</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>45700.4034837963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>45995.60241898148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>45995.60341435186</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>46037.51976851852</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>46037.51667824074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>45999.45065972222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30407,7 +30407,7 @@
         <v>45999.70637731482</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>46038.32458333333</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>46038.32899305555</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30583,7 +30583,7 @@
         <v>46041.36222222223</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30640,7 +30640,7 @@
         <v>44897</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30697,7 +30697,7 @@
         <v>46038.29952546296</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         <v>44977.46348379629</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>45628</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>45999.45556712963</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>44309</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45999.69384259259</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>45352.31188657408</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         <v>45513.67152777778</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>46000</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31225,7 +31225,7 @@
         <v>45166</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31282,7 +31282,7 @@
         <v>46000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45680.33516203704</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>46000</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>45191</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44853.81195601852</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45251.34717592593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>45589.69603009259</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>46002.61063657407</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44855</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44942</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>45680.72692129629</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>46045.46387731482</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>45695.32108796296</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45462.69741898148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45412.71516203704</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>45113.4478125</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>45421.47430555556</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45558.62405092592</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32318,7 +32318,7 @@
         <v>45359.30814814815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45090</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45567.62038194444</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>46005.46197916667</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>46007.72899305556</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32603,7 +32603,7 @@
         <v>46049</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32660,7 +32660,7 @@
         <v>45268.42212962963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         <v>44294</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>44930.4346875</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>44476.32795138889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>45698.48871527778</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32945,7 +32945,7 @@
         <v>45812</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>45177.47043981482</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>46052.46678240741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33116,7 +33116,7 @@
         <v>45680.59795138889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>44986</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>46013.3402662037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>45175</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>46052.43711805555</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>46013.42341435186</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>45677.64241898148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>45462.72221064815</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>45081</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>45166.64127314815</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>45595.89636574074</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44942</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>45391.3859837963</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>45373.36293981481</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>45373.37415509259</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33991,7 +33991,7 @@
         <v>45155.3446875</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34048,7 +34048,7 @@
         <v>46016.470625</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34105,7 +34105,7 @@
         <v>45738.63730324074</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34162,7 +34162,7 @@
         <v>46059.36332175926</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>46020.34120370371</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         <v>46020.33778935186</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>45564.98079861111</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34390,7 +34390,7 @@
         <v>45010.45270833333</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34447,7 +34447,7 @@
         <v>45719</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34504,7 +34504,7 @@
         <v>46061.88951388889</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34561,7 +34561,7 @@
         <v>46020.35215277778</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>46063.6409375</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>46063.73157407407</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>46062.50005787037</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>45113.4787037037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>46059.36255787037</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>45214.44184027778</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>45217</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>45156</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44942</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>45539.60321759259</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>45355.44633101852</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>46065.66357638889</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44882.68681712963</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35364,7 +35364,7 @@
         <v>46064.72435185185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35421,7 +35421,7 @@
         <v>45175</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35478,7 +35478,7 @@
         <v>45175</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>45076</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35592,7 +35592,7 @@
         <v>45076</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35649,7 +35649,7 @@
         <v>46066.42033564814</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35706,7 +35706,7 @@
         <v>46066.35013888889</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35763,7 +35763,7 @@
         <v>45733.67344907407</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35820,7 +35820,7 @@
         <v>45653.58763888889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35877,7 +35877,7 @@
         <v>44526.55567129629</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>44386.50340277778</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35991,7 +35991,7 @@
         <v>45612.43539351852</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36048,7 +36048,7 @@
         <v>45679.60049768518</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>45625.869375</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44816.48018518519</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>45680.60165509259</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>45222.70064814815</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>45211.66349537037</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36395,7 +36395,7 @@
         <v>45435.48994212963</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36452,7 +36452,7 @@
         <v>45435.49695601852</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36509,7 +36509,7 @@
         <v>45435.50355324074</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36566,7 +36566,7 @@
         <v>44911</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36623,7 +36623,7 @@
         <v>45748</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36680,7 +36680,7 @@
         <v>45378.73694444444</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36737,7 +36737,7 @@
         <v>45141.58421296296</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36794,7 +36794,7 @@
         <v>44992.58211805556</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36851,7 +36851,7 @@
         <v>44992.62568287037</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36908,7 +36908,7 @@
         <v>45202</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36965,7 +36965,7 @@
         <v>45280</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44883</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>46030.63140046296</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>45722.41969907407</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>46030.62481481482</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37250,7 +37250,7 @@
         <v>45588.89078703704</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37307,7 +37307,7 @@
         <v>45246</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37364,7 +37364,7 @@
         <v>44865</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>44698</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>45189.7607175926</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>45352.31738425926</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37597,7 +37597,7 @@
         <v>44687.24572916667</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37654,7 +37654,7 @@
         <v>44347.36586805555</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>45467.60365740741</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>45211.64981481482</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>45187.68246527778</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>45450.54707175926</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>45253.55111111111</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>45051.61240740741</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>45215.55851851852</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>45384.54092592592</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38172,7 +38172,7 @@
         <v>45078</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38229,7 +38229,7 @@
         <v>45574.31337962963</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38286,7 +38286,7 @@
         <v>45531.74303240741</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38343,7 +38343,7 @@
         <v>44992</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38400,7 +38400,7 @@
         <v>45244.49783564815</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38457,7 +38457,7 @@
         <v>45687.49402777778</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38514,7 +38514,7 @@
         <v>44858</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38571,7 +38571,7 @@
         <v>45539.46086805555</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>45609.32234953704</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44531</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>45733.6841087963</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38799,7 +38799,7 @@
         <v>45049</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>45679</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38913,7 +38913,7 @@
         <v>44859.32368055556</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38970,7 +38970,7 @@
         <v>44531.66638888889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39027,7 +39027,7 @@
         <v>45747</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>45167.41748842593</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>45734</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39198,7 +39198,7 @@
         <v>45446</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>45616.53173611111</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>45722.42119212963</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>45600.29040509259</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>44335</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39488,7 +39488,7 @@
         <v>45240</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44587</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>45770.48070601852</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44582.30452546296</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44482.3475</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45759.41274305555</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45531.48230324074</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45680.59917824074</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44897</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44449</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>44273.30824074074</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>45583.47490740741</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>45303</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>45594.56443287037</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>45469.71447916667</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40358,7 +40358,7 @@
         <v>45401.66519675926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40415,7 +40415,7 @@
         <v>45092.34288194445</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40472,7 +40472,7 @@
         <v>45092.46023148148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40529,7 +40529,7 @@
         <v>45103.70189814815</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>45642.5609375</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44760.615</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44526</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45268.57665509259</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45440.59321759259</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45244.48413194445</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45051.45070601852</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45176.47287037037</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45716.48269675926</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45716.49100694444</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>44921.82634259259</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>44928.49351851852</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>44568.79167824074</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>44634</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>44592.57989583333</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>44777.38348379629</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45615.30976851852</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41560,7 +41560,7 @@
         <v>45615.31185185185</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41617,7 +41617,7 @@
         <v>44942</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41674,7 +41674,7 @@
         <v>44942</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41731,7 +41731,7 @@
         <v>45273.43633101852</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41788,7 +41788,7 @@
         <v>45497.63172453704</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41845,7 +41845,7 @@
         <v>45217</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41902,7 +41902,7 @@
         <v>44621.66988425926</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41959,7 +41959,7 @@
         <v>44922</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42016,7 +42016,7 @@
         <v>45169.30215277777</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42073,7 +42073,7 @@
         <v>44860.64129629629</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42130,7 +42130,7 @@
         <v>45733.40694444445</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42187,7 +42187,7 @@
         <v>45154.43976851852</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42244,7 +42244,7 @@
         <v>45771.54863425926</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45537.46707175926</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>44636.55400462963</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>44529.49450231482</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>44508</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>44858</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45776.86851851852</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45663</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42705,7 +42705,7 @@
         <v>45169.53290509259</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42762,7 +42762,7 @@
         <v>45624.65733796296</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42819,7 +42819,7 @@
         <v>45781.41818287037</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42876,7 +42876,7 @@
         <v>45781.41056712963</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>45407.46351851852</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>45827.49856481481</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>45719.47412037037</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>45519.60221064815</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>45527.3153125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43218,7 +43218,7 @@
         <v>45638.46824074074</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43275,7 +43275,7 @@
         <v>45799.30594907407</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>45405.59800925926</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44511.80325231481</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>44511.87037037037</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>45702.37107638889</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>45589.48217592593</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>45460.54523148148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>45663.86024305555</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>45805.6447337963</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45805.66611111111</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>45804.36956018519</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43917,7 +43917,7 @@
         <v>45805.65143518519</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43979,7 +43979,7 @@
         <v>45805.65680555555</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44041,7 +44041,7 @@
         <v>45804.3675</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>45804.49628472222</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>45804.36267361111</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44222,7 +44222,7 @@
         <v>45804.4793287037</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44279,7 +44279,7 @@
         <v>45612.66797453703</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>45817.50908564815</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44393,7 +44393,7 @@
         <v>45817.63480324074</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -575,7 +575,7 @@
         <v>46041.37991898148</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45215</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44889.44659722222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45386</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44830</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44424.69891203703</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45763.78657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45818.65486111111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45631.8084375</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45218</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>45183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44882.65143518519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>45742.78724537037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>45716.65045138889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44609.47314814815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44525.50052083333</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44785</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44785</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44473.81864583334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44463.35791666667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44463.35958333333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>44280</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44351.48209490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>44306.68837962963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>44327.57842592592</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44315</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44251</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44286</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44515</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44802.57482638889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44802.57569444444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44785</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44749.58270833334</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44474.50116898148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44350.60737268518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44798.3397337963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44523</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44428.87</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44503</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44279.38944444444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44448</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44385.32215277778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44503.48087962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44785</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44665</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44462.89869212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>44846.67137731481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>44460.73518518519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>44397</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44284</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44847.48289351852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44498.27439814815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44274.84170138889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44427</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44427.31769675926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44690.88424768519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44812</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>44344</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>44413</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>44448.62939814815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>44400.7940162037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44383.37193287037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44377.64809027778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>44447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44602.59478009259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>44397</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>44453.64589120371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>44512.3278587963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>44253</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>44621.38096064814</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44448</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>44609.87715277778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>44292</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>44344.42061342593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44487</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>44721.47574074074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>44587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>44386.74578703703</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44474.34982638889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>44431</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>44509.46288194445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44427</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44427.31667824074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44463.69890046296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44733.53642361111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>44315</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>44342.36506944444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>44621.38295138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>44854.6284837963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>44854</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>44680.80325231481</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>44524</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>44460.3700462963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>44690.86459490741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>44690.86802083333</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>44477</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44865</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44496</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44721.47675925926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>44525</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>44685.3320949074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44326.44072916666</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44312.66563657407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44474.50032407408</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44434</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44327.57980324074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44643.5586574074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44596</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44266.76030092593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44510</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44522</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44362.73894675926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44251</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44636</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44643.55725694444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44657</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44327.58231481481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44433</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>44831</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>44831</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>44491.52920138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45244.59032407407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45433.33723379629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>45209</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>44292.58516203704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>45062</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>45098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>45348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45457</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>45734</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>44496.59342592592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>45735.55299768518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>45735.555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>45205.54072916666</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>45610.50424768519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>44826.33715277778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>44962</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44610.53254629629</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>45469.59653935185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>45254.48099537037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>45543.72571759259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>45578</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>45554</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>45133.66960648148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>45575.56337962963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>45457</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>45457</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>45049.36695601852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44473.86554398148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>45680.59315972222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>45680.59511574074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45359.30721064815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45175</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44496</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45469.70945601852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>45720.21070601852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>45769</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>45769</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>45566.67163194445</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>45222.69469907408</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45133.66702546296</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>45309.33142361111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44876.35701388889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45680</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45638.67876157408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>45638.91269675926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>44686.47582175926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>44994</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45051</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>45187.60745370371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>45103.70469907407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>45315.51804398148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44817</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45240</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>45531</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>45350</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>45693.54733796296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>44853.81002314815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>45737.26609953704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>45303.45996527778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>45586</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>45290</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>45180.86666666667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>45443.56369212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44859</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>45684.32357638889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44935.34144675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>45679</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45771.45237268518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>44979.46550925926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45818.39106481482</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>45548.59546296296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>45818.60510416667</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45695.35372685185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45726.55761574074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45015.31724537037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45560.76623842592</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>45771.54563657408</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>45771.54145833333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>44998</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>45884.30076388889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>45884.31721064815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>45462.60291666666</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45187.60013888889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44958.84677083333</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>45888.53797453704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44320.42920138889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>45888.66755787037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13603,7 +13603,7 @@
         <v>45328.43439814815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         <v>45637.55135416667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>45888.51924768519</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>45888.46113425926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>45824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>45891.64903935185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>45827.60109953704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>45062.49423611111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>45414.31873842593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>45891.63444444445</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>45335.41604166666</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44315</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44315</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>45716.60950231482</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>45895.61116898148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>45334.8496875</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>45831.66119212963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>45831</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45831.70327546296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45681.46109953704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>45897.68016203704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45897.44570601852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>45460</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>45833.65425925926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>45832.57881944445</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>45833.39313657407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>45716.64879629629</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>45896.68458333334</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>45898.47987268519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>45090.3316550926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44994</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>45512.42822916667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44994.69185185185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>45042.29704861111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>45680.71556712963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>45875</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>44897</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45373.3674537037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>45835.60259259259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>45901.3906712963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45834.49287037037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>45078</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>45748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>45681.45844907407</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45835.57680555555</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45068.71310185185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>45839.54353009259</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>45903.57832175926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>45715.32840277778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>45902.60076388889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>45371.56891203704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44921</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44641</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45145.90166666666</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45352.31292824074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>45228.75835648148</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45608.5525</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>45855.4741087963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>45839.50266203703</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>45909.70618055556</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>45258</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>45632.49377314815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>45632.50561342593</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45841.33027777778</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44914.55465277778</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45842</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45538</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45911.42127314815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45911.47451388889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45911.57913194445</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45842.39072916667</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45716.62706018519</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>45911.65790509259</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>45842.31827546296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>45842.37513888889</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45529.48743055556</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44743.63931712963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44503</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>45915.49127314815</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>45842.37927083333</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18312,7 +18312,7 @@
         <v>45842.38234953704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>45842.38695601852</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>45845.39126157408</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>45846.55724537037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>45912.35086805555</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45805.65649305555</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45917.29938657407</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>45916.63920138889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>45916.6452662037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45917.29707175926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>45884</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45559.37751157407</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45917.29179398148</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45916.67770833334</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45547.54277777778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>45916.69076388889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19254,7 +19254,7 @@
         <v>45594.44408564815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>45852.78871527778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>45853.67818287037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45916.71357638889</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45317</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45726.52251157408</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>45726.50618055555</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45078.43299768519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45078.43392361111</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45854.61896990741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>45254.48444444445</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>45839.58186342593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45854.61559027778</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45734.35563657407</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>44979.31732638889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>45819.6612962963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>45581.29194444444</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>45763.79082175926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45763.7996412037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>45923.46449074074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45792.55155092593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>45728.67893518518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>45716.48494212963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45716.49273148148</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>45812.94432870371</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>45923.46226851852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>45716.47709490741</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>45716.65282407407</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>45924.8566087963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>45372.50484953704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>45631.78876157408</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45251.33616898148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45581.28953703704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>45867.34890046297</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45866.39836805555</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>44383.6890162037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>45726.49561342593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>45440</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>45873.49777777777</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>44545.80055555556</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45140.77881944444</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45929.5547337963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45856</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45929.92255787037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45874.6512962963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45930.69873842593</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45930.91256944444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>45111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>45348.42112268518</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>45930.91648148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>45933.38829861111</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22166,7 +22166,7 @@
         <v>45233</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22223,7 +22223,7 @@
         <v>45233</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22280,7 +22280,7 @@
         <v>45874.64729166667</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         <v>45932</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>45833.59498842592</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>44523</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>45211.64909722222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45215.5349074074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45932</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45632.45395833333</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>45880</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
         <v>45629.47450231481</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22850,7 +22850,7 @@
         <v>45644</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>45819.6641087963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22964,7 +22964,7 @@
         <v>45476.48375</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45170.58003472222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45883.47663194445</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45883.65811342592</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45883.70913194444</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45883.46064814815</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45882.64614583334</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45757.31876157408</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45630.3771412037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45252.40496527778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45006</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45938.57505787037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>45089.71939814815</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>45608.54846064815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>45286.74935185185</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>45734.3918287037</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>45211.64829861111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45181.80498842592</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45887.61657407408</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>45728</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>45728</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>45887.53386574074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>45944.53962962963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>45945.37453703704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>45887.34725694444</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>45945.35819444444</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>45215</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>45376.66356481481</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>45134</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>45945.32269675926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>45635.65861111111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44316</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>45946.5049074074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45154.441875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>45947.28266203704</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45947.61274305556</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>45947.62452546296</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44784</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>45951.3629050926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>45916.64810185185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45373.37761574074</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>45373.38342592592</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45384.54230324074</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45084</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>45010.41703703703</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>45952.35865740741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>45953.34363425926</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>45954.35844907408</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45631.80012731482</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>45355.43185185185</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>45355.44435185185</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>45529.48386574074</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44883.38564814815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>45959.60402777778</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>45958.35313657407</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>45959.52787037037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44943.28924768518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45589.68910879629</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45010.45023148148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45271.89012731481</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45966.46200231482</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45966.66572916666</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45967.3860300926</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45966.63927083334</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>44438</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45012</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45969.35258101852</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>45969.36664351852</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44543</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>45973.4650462963</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44865</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>45771.54695601852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>45048.34269675926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>45533.54564814815</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>45001</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>45282.32709490741</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>45733.56050925926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>44403</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>45273</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>45273.43924768519</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>45706.59630787037</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>45982</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>45612.42126157408</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>45615.32158564815</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>45250.99255787037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>45250.99520833333</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>45251.35104166667</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>45546.38291666667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>45180.87385416667</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45616.53303240741</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>45539.4634375</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>45608.66239583334</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>45311.62662037037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>45982</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>45308</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>45384.89954861111</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>45986</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>45374.78101851852</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28719,7 +28719,7 @@
         <v>45706.78021990741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28776,7 +28776,7 @@
         <v>45992.62179398148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>45211.65987268519</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>45012.55712962963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>45314</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>46035.55988425926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>45992.60458333333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>46035.54008101852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>46035.55722222223</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>45992</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>45992.60956018518</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>45707.45516203704</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>45992.61700231482</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>45303.5246412037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>45653.59204861111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>45653.59679398148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29656,7 +29656,7 @@
         <v>45187</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>45716.65662037037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>45716.65777777778</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>46037.69407407408</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44973</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44942</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>45700.4034837963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>45995.60241898148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>45995.60341435186</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>46037.51976851852</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>45061</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>46037.51667824074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>45999.45065972222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30407,7 +30407,7 @@
         <v>45999.70637731482</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>46038.32458333333</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>46038.32899305555</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30583,7 +30583,7 @@
         <v>46041.36222222223</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30640,7 +30640,7 @@
         <v>44897</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30697,7 +30697,7 @@
         <v>46038.29952546296</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         <v>44977.46348379629</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>45628</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>45999.45556712963</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>44309</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45999.69384259259</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>45352.31188657408</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         <v>45513.67152777778</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>46000</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31225,7 +31225,7 @@
         <v>45166</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31282,7 +31282,7 @@
         <v>46000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45680.33516203704</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>46000</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>45191</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44853.81195601852</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45251.34717592593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>45589.69603009259</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>46002.61063657407</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44855</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44942</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>45680.72692129629</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>46045.46387731482</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>45695.32108796296</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45462.69741898148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45412.71516203704</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>45113.4478125</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>45421.47430555556</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45558.62405092592</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32318,7 +32318,7 @@
         <v>45359.30814814815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45090</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45567.62038194444</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>46005.46197916667</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>46007.72899305556</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32603,7 +32603,7 @@
         <v>46049</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32660,7 +32660,7 @@
         <v>45268.42212962963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         <v>44294</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>44930.4346875</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>44476.32795138889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>45698.48871527778</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32945,7 +32945,7 @@
         <v>45812</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>45177.47043981482</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>46052.46678240741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33116,7 +33116,7 @@
         <v>45680.59795138889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>44986</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>46013.3402662037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>45175</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>46052.43711805555</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>46013.42341435186</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>45677.64241898148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>45462.72221064815</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>45081</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>45166.64127314815</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>45595.89636574074</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44942</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>45391.3859837963</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>45373.36293981481</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>45373.37415509259</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33991,7 +33991,7 @@
         <v>45155.3446875</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34048,7 +34048,7 @@
         <v>46016.470625</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34105,7 +34105,7 @@
         <v>45738.63730324074</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34162,7 +34162,7 @@
         <v>46059.36332175926</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>46020.34120370371</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         <v>46020.33778935186</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>45564.98079861111</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34390,7 +34390,7 @@
         <v>45010.45270833333</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34447,7 +34447,7 @@
         <v>45719</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34504,7 +34504,7 @@
         <v>46061.88951388889</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34561,7 +34561,7 @@
         <v>46020.35215277778</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>46063.6409375</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>46063.73157407407</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>46062.50005787037</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>45113.4787037037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>46059.36255787037</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>45214.44184027778</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>45217</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>45156</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44942</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>45539.60321759259</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>45355.44633101852</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>46065.66357638889</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44882.68681712963</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35364,7 +35364,7 @@
         <v>46064.72435185185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35421,7 +35421,7 @@
         <v>45175</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35478,7 +35478,7 @@
         <v>45175</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>45076</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35592,7 +35592,7 @@
         <v>45076</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35649,7 +35649,7 @@
         <v>46066.42033564814</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35706,7 +35706,7 @@
         <v>46066.35013888889</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35763,7 +35763,7 @@
         <v>45733.67344907407</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35820,7 +35820,7 @@
         <v>45653.58763888889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35877,7 +35877,7 @@
         <v>44526.55567129629</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>44386.50340277778</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35991,7 +35991,7 @@
         <v>45612.43539351852</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36048,7 +36048,7 @@
         <v>45679.60049768518</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>45625.869375</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44816.48018518519</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>45680.60165509259</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>45222.70064814815</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>45211.66349537037</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36395,7 +36395,7 @@
         <v>45435.48994212963</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36452,7 +36452,7 @@
         <v>45435.49695601852</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36509,7 +36509,7 @@
         <v>45435.50355324074</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36566,7 +36566,7 @@
         <v>44911</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36623,7 +36623,7 @@
         <v>45748</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36680,7 +36680,7 @@
         <v>45378.73694444444</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36737,7 +36737,7 @@
         <v>45141.58421296296</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36794,7 +36794,7 @@
         <v>44992.58211805556</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36851,7 +36851,7 @@
         <v>44992.62568287037</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36908,7 +36908,7 @@
         <v>45202</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36965,7 +36965,7 @@
         <v>45280</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44883</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>46030.63140046296</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>45722.41969907407</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>46030.62481481482</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37250,7 +37250,7 @@
         <v>45588.89078703704</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37307,7 +37307,7 @@
         <v>45246</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37364,7 +37364,7 @@
         <v>44865</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>44698</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>45189.7607175926</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>45352.31738425926</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37597,7 +37597,7 @@
         <v>44687.24572916667</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37654,7 +37654,7 @@
         <v>44347.36586805555</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>45467.60365740741</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>45211.64981481482</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>45187.68246527778</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>45450.54707175926</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>45253.55111111111</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>45051.61240740741</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>45215.55851851852</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>45384.54092592592</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38172,7 +38172,7 @@
         <v>45078</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38229,7 +38229,7 @@
         <v>45574.31337962963</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38286,7 +38286,7 @@
         <v>45531.74303240741</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38343,7 +38343,7 @@
         <v>44992</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38400,7 +38400,7 @@
         <v>45244.49783564815</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38457,7 +38457,7 @@
         <v>45687.49402777778</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38514,7 +38514,7 @@
         <v>44858</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38571,7 +38571,7 @@
         <v>45539.46086805555</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>45609.32234953704</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44531</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>45733.6841087963</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38799,7 +38799,7 @@
         <v>45049</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>45679</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38913,7 +38913,7 @@
         <v>44859.32368055556</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38970,7 +38970,7 @@
         <v>44531.66638888889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39027,7 +39027,7 @@
         <v>45747</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>45167.41748842593</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>45734</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39198,7 +39198,7 @@
         <v>45446</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>45616.53173611111</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>45722.42119212963</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>45600.29040509259</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>44335</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39488,7 +39488,7 @@
         <v>45240</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44587</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>45770.48070601852</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44582.30452546296</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44482.3475</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45759.41274305555</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45531.48230324074</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45680.59917824074</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44897</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44449</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>44273.30824074074</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>45583.47490740741</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>45303</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40239,7 +40239,7 @@
         <v>45594.56443287037</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>45469.71447916667</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40358,7 +40358,7 @@
         <v>45401.66519675926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40415,7 +40415,7 @@
         <v>45092.34288194445</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40472,7 +40472,7 @@
         <v>45092.46023148148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40529,7 +40529,7 @@
         <v>45103.70189814815</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>45642.5609375</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44760.615</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44526</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45268.57665509259</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45440.59321759259</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45244.48413194445</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45051.45070601852</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45176.47287037037</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45716.48269675926</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45716.49100694444</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>44921.82634259259</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>44928.49351851852</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>44568.79167824074</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>44634</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>44592.57989583333</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>44777.38348379629</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45615.30976851852</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41560,7 +41560,7 @@
         <v>45615.31185185185</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41617,7 +41617,7 @@
         <v>44942</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41674,7 +41674,7 @@
         <v>44942</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41731,7 +41731,7 @@
         <v>45273.43633101852</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41788,7 +41788,7 @@
         <v>45497.63172453704</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41845,7 +41845,7 @@
         <v>45217</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41902,7 +41902,7 @@
         <v>44621.66988425926</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41959,7 +41959,7 @@
         <v>44922</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42016,7 +42016,7 @@
         <v>45169.30215277777</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42073,7 +42073,7 @@
         <v>44860.64129629629</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42130,7 +42130,7 @@
         <v>45733.40694444445</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42187,7 +42187,7 @@
         <v>45154.43976851852</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42244,7 +42244,7 @@
         <v>45771.54863425926</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45537.46707175926</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>44636.55400462963</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>44529.49450231482</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>44508</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>44858</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45776.86851851852</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45663</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42705,7 +42705,7 @@
         <v>45169.53290509259</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42762,7 +42762,7 @@
         <v>45624.65733796296</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42819,7 +42819,7 @@
         <v>45781.41818287037</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42876,7 +42876,7 @@
         <v>45781.41056712963</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>45407.46351851852</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>45827.49856481481</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>45719.47412037037</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>45519.60221064815</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>45527.3153125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43218,7 +43218,7 @@
         <v>45638.46824074074</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43275,7 +43275,7 @@
         <v>45799.30594907407</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>45405.59800925926</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44511.80325231481</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>44511.87037037037</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>45702.37107638889</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>45589.48217592593</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>45460.54523148148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>45663.86024305555</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>45805.6447337963</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45805.66611111111</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>45804.36956018519</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43917,7 +43917,7 @@
         <v>45805.65143518519</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43979,7 +43979,7 @@
         <v>45805.65680555555</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44041,7 +44041,7 @@
         <v>45804.3675</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>45804.49628472222</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>45804.36267361111</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44222,7 +44222,7 @@
         <v>45804.4793287037</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44279,7 +44279,7 @@
         <v>45612.66797453703</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>45817.50908564815</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44393,7 +44393,7 @@
         <v>45817.63480324074</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>

--- a/Översikt ÄLMHULT.xlsx
+++ b/Översikt ÄLMHULT.xlsx
@@ -575,7 +575,7 @@
         <v>46041.37991898148</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45215</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44889.44659722222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44830</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44424.69891203703</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45183</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45763.78657407407</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45742.78724537037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45818.65486111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>45631.8084375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>45218</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44882.65143518519</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>45716.65045138889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44525.50052083333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44785</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44785</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44785</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44473.81864583334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44609.47314814815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44463.35791666667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44463.35958333333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>44280</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44351.48209490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>44306.68837962963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>44327.57842592592</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44315</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44286</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44802.57482638889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44802.57569444444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44749.58270833334</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44785</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44474.50116898148</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44350.60737268518</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44798.3397337963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44523</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44428.87</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44279.38944444444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44385.32215277778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44503.48087962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44785</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>44462.89869212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44846.67137731481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>44460.73518518519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>44397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>44284</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44847.48289351852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44498.27439814815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44274.84170138889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44427</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44427.31769675926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44690.88424768519</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44344</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44812</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>44413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>44448.62939814815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>44383.37193287037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>44504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44453.64589120371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44602.59478009259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>44397</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44400.7940162037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44377.64809027778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>44447</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>44512.3278587963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>44448</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>44621.38096064814</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>44609.87715277778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44292</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>44344.42061342593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>44487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>44721.47574074074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44386.74578703703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>44587</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44802</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>44474.34982638889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44509.46288194445</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>44427</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>44427.31667824074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44739</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44463.69890046296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44551</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44733.53642361111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44278</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44342.36506944444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>44315</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>44621.38295138889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>44854.6284837963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>44854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>44680.80325231481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>44524</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>44690.86459490741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>44690.86802083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>44460.3700462963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>44477</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>44865</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>44496</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44721.47675925926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44525</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44685.3320949074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>44326.44072916666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>44312.66563657407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44474.50032407408</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44434</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44327.57980324074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44643.5586574074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44596</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44266.76030092593</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44510</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44522</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44362.73894675926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44636</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44643.55725694444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44657</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44327.58231481481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44433</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44831</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44831</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44491.52920138889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>44816.48018518519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>45716.47709490741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45497.63172453704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45222.69469907408</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>45747</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>45268.42212962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>45211.64981481482</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44855</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>45348.42112268518</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>45401.66519675926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>45440</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>45078.43299768519</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>45078.43392361111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>45359.30814814815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>45254.48099537037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>45217</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>45215.5349074074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>44853.81195601852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>45539.60321759259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>45384.89954861111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>45457</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>45317</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>45462.60291666666</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>45529.48386574074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44986</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44865</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>45089.71939814815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>45251.34717592593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45733.56050925926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45309.33142361111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>44897</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>44449</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45457</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45457</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44883.38564814815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>45140.77881944444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45328.43439814815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44582.30452546296</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44942</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45533.54564814815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>45169.30215277777</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10750,7 +10750,7 @@
         <v>45113.4478125</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         <v>44545.80055555556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>44962</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
         <v>44943.28924768518</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>44930.4346875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>44883</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44973</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>45531</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>45373.36293981481</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>45373.37415509259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>45435.48994212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45435.49695601852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>45435.50355324074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44911</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44994.69185185185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44853.81002314815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44531</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>45373.3674537037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>45538</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>45175</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44914.55465277778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44859</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>45804.36267361111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>45574.31337962963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>45559.37751157407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>45804.4793287037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44998</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>45804.3675</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45883.47663194445</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>45805.65143518519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>45805.65680555555</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>45805.6447337963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>45805.66611111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>45883.65811342592</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>45883.46064814815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>45884.30076388889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45884.31721064815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>45888.53797453704</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>45888.66755787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>45888.51924768519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>45887.61657407408</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>45887.53386574074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45681.45844907407</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>45888.46113425926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>45181.80498842592</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>45637.55135416667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>45560.76623842592</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>45887.34725694444</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>45687.49402777778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45817.50908564815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45818.39106481482</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>45543.72571759259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>45548.59546296296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>45818.60510416667</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>45771.54145833333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45695.35372685185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>45513.67152777778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>45612.66797453703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44383.6890162037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>45817.63480324074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>45554</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>45891.64903935185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>45564.98079861111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45254.48444444445</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45891.63444444445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>44994</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45824</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45896.68458333334</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45895.61116898148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45898.47987268519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>45897.68016203704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>45897.44570601852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>45335.41604166666</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>45875</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>45600.29040509259</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>45441</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45334.8496875</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>45716.60950231482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>45901.3906712963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>45512.42822916667</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>45827.60109953704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>45902.60076388889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>45446</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>45748</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>45831.70327546296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>45903.57832175926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>45832.57881944445</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>45831</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>45831.66119212963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>45833.65425925926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>45834.49287037037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>45833.39313657407</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>45738.63730324074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>45170.58003472222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>45835.60259259259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16349,7 +16349,7 @@
         <v>44292.58516203704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>45594.56443287037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>44273.30824074074</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45835.57680555555</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>45588.89078703704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44641</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>45462.72221064815</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45855.4741087963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>45258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>45839.54353009259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>45716.64879629629</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45839.50266203703</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45578</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45842</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45308</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45771.54695601852</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45771.54863425926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45842.31827546296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45842.37513888889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45372.50484953704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45909.70618055556</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45629.47450231481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45842.38234953704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45842.38695601852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45911.42127314815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45842.37927083333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45842.39072916667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45841.33027777778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45911.47451388889</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45529.48743055556</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45911.57913194445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45912.35086805555</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45846.55724537037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45845.39126157408</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45642.5609375</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45145.90166666666</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45911.65790509259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45805.65649305555</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>45916.71357638889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45680.72692129629</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>45916.67770833334</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>45726.50618055555</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>45726.52251157408</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>45854.61559027778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>45852.78871527778</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>45469.70945601852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>45853.67818287037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>45916.63920138889</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>45854.61896990741</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>45916.69076388889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>45078</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>45763.79082175926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>45763.7996412037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>45581.29194444444</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>45792.55155092593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>45819.6612962963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44979.31732638889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>45715.32840277778</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>45839.58186342593</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>45915.49127314815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19809,7 +19809,7 @@
         <v>45728.67893518518</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>45916.6452662037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45884</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>45615.30976851852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>45615.31185185185</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45812.94432870371</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>45631.80012731482</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>45917.29179398148</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>45917.29707175926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>45917.29938657407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45631.78876157408</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45051</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45154.43976851852</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20570,7 +20570,7 @@
         <v>45866.39836805555</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45726.49561342593</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>45616.53303240741</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44760.615</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>45867.34890046297</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>45610.50424768519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>45923.46449074074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>45923.46226851852</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45581.28953703704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>44526.55567129629</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>45924.8566087963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45856</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>44403</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>45929.5547337963</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>45076</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>45076</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45929.92255787037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>44347.36586805555</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45930.69873842593</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45873.49777777777</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45874.6512962963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>44309</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45722.42119212963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45930.91256944444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>45874.64729166667</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>45932</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>44826.33715277778</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>45833.59498842592</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22166,7 +22166,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22223,7 +22223,7 @@
         <v>44496.59342592592</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22280,7 +22280,7 @@
         <v>45819.6641087963</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         <v>45880</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>44568.79167824074</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>45644</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>45932</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45680.59917824074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45476.48375</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45679</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45930.91648148148</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45882.64614583334</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45748</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45716.65282407407</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>45176.47287037037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>44784</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45348</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45933.38829861111</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45883.70913194444</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45244.48413194445</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45769</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45769</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>45938.57505787037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>45735.55299768518</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23549,7 +23549,7 @@
         <v>45735.555</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23606,7 +23606,7 @@
         <v>45286.74935185185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>45273</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>45273.43924768519</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45716.49100694444</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>45154.441875</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>45944.53962962963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>45078</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>45113.4787037037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45180.86666666667</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45946.5049074074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45583.47490740741</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45945.35819444444</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45945.37453703704</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>44529.49450231482</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45090.3316550926</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45133.66702546296</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45945.32269675926</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>44882.68681712963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45467.60365740741</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45632.50561342593</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45947.28266203704</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>44897</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45757.31876157408</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45947.61274305556</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45947.62452546296</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45733.67344907407</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45916.64810185185</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>44858</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>45952.35865740741</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>45951.3629050926</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>45953.34363425926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>45374.78101851852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>45433.33723379629</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>44897</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>45737.26609953704</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>45954.35844907408</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>45958.35313657407</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44942</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25891,7 +25891,7 @@
         <v>44434</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>45103.70469907407</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45251.33616898148</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>45251.35104166667</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45049</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44508</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26233,7 +26233,7 @@
         <v>45566.67163194445</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>45959.60402777778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45240</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45959.52787037037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>45001</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>45352.31738425926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44482.3475</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>45608.66239583334</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44935.34144675926</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>45966.63927083334</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44992.62568287037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>45371.56891203704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>45966.66572916666</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26984,7 +26984,7 @@
         <v>45352.31292824074</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>45966.46200231482</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>45967.3860300926</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>45092.34288194445</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>45006</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>45092.46023148148</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>45166.64127314815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>45376.66356481481</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>44942</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>45015.31724537037</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>44543</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>45969.35258101852</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>45969.36664351852</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>45155.3446875</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>45384.54092592592</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>45450.54707175926</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44523</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44476.32795138889</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>45586</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44473.86554398148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>45973.4650462963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45531.74303240741</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>45615.32158564815</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44958.84677083333</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>45098</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>45695.32108796296</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>45608.54846064815</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>45156</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>45558.62405092592</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>45539.46086805555</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>45187.60013888889</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>45982</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>45133.66960648148</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>45716.48269675926</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>45355.43185185185</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>45355.44435185185</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44979.46550925926</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>45189.7607175926</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>45010.45270833333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>45537.46707175926</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>45632.45395833333</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>45539.4634375</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>45355.44633101852</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>45982</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45986</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29609,7 +29609,7 @@
         <v>45771.54563657408</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>45720.21070601852</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45992.61700231482</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29790,7 +29790,7 @@
         <v>45462.69741898148</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>45716.49273148148</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45992</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45992.62179398148</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>45992.60956018518</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45992.60458333333</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45049.36695601852</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>45706.78021990741</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30266,7 +30266,7 @@
         <v>45995.60241898148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45995.60341435186</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>45282.32709490741</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44686.47582175926</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>45350</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>45616.53173611111</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>46041.36222222223</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44636.55400462963</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>46000</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30784,7 +30784,7 @@
         <v>45999.45065972222</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>45999.70637731482</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>45726.55761574074</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30960,7 +30960,7 @@
         <v>45594.44408564815</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>46000</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31079,7 +31079,7 @@
         <v>45999.69384259259</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31141,7 +31141,7 @@
         <v>46000</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>45999.45556712963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>45191</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>45716.65662037037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>45716.65777777778</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44531.66638888889</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31498,7 +31498,7 @@
         <v>44587</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         <v>45062.49423611111</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31612,7 +31612,7 @@
         <v>46002.61063657407</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31669,7 +31669,7 @@
         <v>45677.64241898148</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31726,7 +31726,7 @@
         <v>45222.70064814815</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31783,7 +31783,7 @@
         <v>44592.57989583333</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31840,7 +31840,7 @@
         <v>45215</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31897,7 +31897,7 @@
         <v>45680.59795138889</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31959,7 +31959,7 @@
         <v>46045.46387731482</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32016,7 +32016,7 @@
         <v>45653.59204861111</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32073,7 +32073,7 @@
         <v>46005.46197916667</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32130,7 +32130,7 @@
         <v>44859.32368055556</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>44634</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32244,7 +32244,7 @@
         <v>44861</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         <v>45625.869375</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32358,7 +32358,7 @@
         <v>45716.48494212963</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>45728</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32472,7 +32472,7 @@
         <v>45728</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>44698</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>45771.45237268518</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>45240</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>45680.60165509259</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>46049</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>45460</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45693.54733796296</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         <v>45698.48871527778</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33052,7 +33052,7 @@
         <v>46007.72899305556</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>45202</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33166,7 +33166,7 @@
         <v>45180.87385416667</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>45211.64909722222</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>45214.44184027778</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33337,7 +33337,7 @@
         <v>45167.41748842593</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>45679.60049768518</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>46052.43711805555</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>46052.46678240741</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>45812</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33622,7 +33622,7 @@
         <v>46013.42341435186</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33679,7 +33679,7 @@
         <v>46013.3402662037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33736,7 +33736,7 @@
         <v>45175</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33793,7 +33793,7 @@
         <v>45175</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33850,7 +33850,7 @@
         <v>45187</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>45681.46109953704</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33964,7 +33964,7 @@
         <v>45233</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>45233</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>44316</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34135,7 +34135,7 @@
         <v>45719</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34192,7 +34192,7 @@
         <v>46016.470625</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34249,7 +34249,7 @@
         <v>46020.33778935186</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         <v>46059.36332175926</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         <v>45734.35563657407</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34420,7 +34420,7 @@
         <v>46020.35215277778</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>45612.42126157408</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34534,7 +34534,7 @@
         <v>46020.34120370371</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34591,7 +34591,7 @@
         <v>46061.88951388889</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34648,7 +34648,7 @@
         <v>45770.48070601852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>46062.50005787037</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>45246</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>46064.72435185185</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34876,7 +34876,7 @@
         <v>45679</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>46063.6409375</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34990,7 +34990,7 @@
         <v>45531.48230324074</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35047,7 +35047,7 @@
         <v>46063.73157407407</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35104,7 +35104,7 @@
         <v>46059.36255787037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>45352.31188657408</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35223,7 +35223,7 @@
         <v>44386.50340277778</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35280,7 +35280,7 @@
         <v>45250.99255787037</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35337,7 +35337,7 @@
         <v>45250.99520833333</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35394,7 +35394,7 @@
         <v>46066.35013888889</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35451,7 +35451,7 @@
         <v>46066.42033564814</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35508,7 +35508,7 @@
         <v>46065.66357638889</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35565,7 +35565,7 @@
         <v>45253.55111111111</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35622,7 +35622,7 @@
         <v>45421.47430555556</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>45012</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45211.66349537037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35793,7 +35793,7 @@
         <v>46030.62481481482</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35850,7 +35850,7 @@
         <v>46030.63140046296</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35907,7 +35907,7 @@
         <v>45084</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>44496</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>45051.45070601852</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>45268.57665509259</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>46076.59452546296</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36192,7 +36192,7 @@
         <v>45469.59653935185</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36249,7 +36249,7 @@
         <v>45175</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>44876.35701388889</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>45722.41969907407</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36420,7 +36420,7 @@
         <v>46076.58013888889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36477,7 +36477,7 @@
         <v>45303</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36534,7 +36534,7 @@
         <v>45440.59321759259</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36591,7 +36591,7 @@
         <v>45733.6841087963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36648,7 +36648,7 @@
         <v>44921</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36705,7 +36705,7 @@
         <v>45734.3918287037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36762,7 +36762,7 @@
         <v>44335</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45608.5525</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45546.38291666667</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>44621.66988425926</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>46035.54008101852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>46035.55722222223</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>46035.55988425926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44858</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>45187.68246527778</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>45412.71516203704</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>45414.31873842593</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37394,7 +37394,7 @@
         <v>44992.58211805556</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37451,7 +37451,7 @@
         <v>44610.53254629629</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37508,7 +37508,7 @@
         <v>44992</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37565,7 +37565,7 @@
         <v>45575.56337962963</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37622,7 +37622,7 @@
         <v>44942</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37679,7 +37679,7 @@
         <v>46038.29952546296</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37736,7 +37736,7 @@
         <v>46038.32458333333</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37793,7 +37793,7 @@
         <v>46038.32899305555</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37850,7 +37850,7 @@
         <v>45085</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37907,7 +37907,7 @@
         <v>46037.51667824074</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37964,7 +37964,7 @@
         <v>46037.69407407408</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38021,7 +38021,7 @@
         <v>44942</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38078,7 +38078,7 @@
         <v>44860.64129629629</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38135,7 +38135,7 @@
         <v>45187.60745370371</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>45290</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>45609.32234953704</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>45217</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>45244.59032407407</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>46037.51976851852</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>45111</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38534,7 +38534,7 @@
         <v>44526</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38591,7 +38591,7 @@
         <v>45141.58421296296</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38648,7 +38648,7 @@
         <v>45359.30721064815</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38705,7 +38705,7 @@
         <v>45012.55712962963</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38762,7 +38762,7 @@
         <v>44687.24572916667</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38819,7 +38819,7 @@
         <v>45081</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38876,7 +38876,7 @@
         <v>45068.71310185185</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38933,7 +38933,7 @@
         <v>45010.45023148148</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38990,7 +38990,7 @@
         <v>45716.62706018519</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39052,7 +39052,7 @@
         <v>45048.34269675926</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>45177.47043981482</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39166,7 +39166,7 @@
         <v>45042.29704861111</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>45273.43633101852</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>45680</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39337,7 +39337,7 @@
         <v>45391.3859837963</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39394,7 +39394,7 @@
         <v>44294</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39451,7 +39451,7 @@
         <v>45134</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39508,7 +39508,7 @@
         <v>44743.63931712963</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39565,7 +39565,7 @@
         <v>45469.71447916667</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39627,7 +39627,7 @@
         <v>44977.46348379629</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39684,7 +39684,7 @@
         <v>45373.37761574074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         <v>45373.38342592592</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39808,7 +39808,7 @@
         <v>45628</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39865,7 +39865,7 @@
         <v>45311.62662037037</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39922,7 +39922,7 @@
         <v>45061</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         <v>45638.91269675926</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40036,7 +40036,7 @@
         <v>45638.67876157408</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40093,7 +40093,7 @@
         <v>45090</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40150,7 +40150,7 @@
         <v>45612.43539351852</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40207,7 +40207,7 @@
         <v>45051.61240740741</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40264,7 +40264,7 @@
         <v>44942</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40321,7 +40321,7 @@
         <v>44315</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40378,7 +40378,7 @@
         <v>44315</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40435,7 +40435,7 @@
         <v>45635.65861111111</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40492,7 +40492,7 @@
         <v>45700.4034837963</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40549,7 +40549,7 @@
         <v>45653.59679398148</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40606,7 +40606,7 @@
         <v>45303.45996527778</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40663,7 +40663,7 @@
         <v>45211.64829861111</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40720,7 +40720,7 @@
         <v>45010.41703703703</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40777,7 +40777,7 @@
         <v>45707.45516203704</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40834,7 +40834,7 @@
         <v>45595.89636574074</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40891,7 +40891,7 @@
         <v>45271.89012731481</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40948,7 +40948,7 @@
         <v>45547.54277777778</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41005,7 +41005,7 @@
         <v>45244.49783564815</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41062,7 +41062,7 @@
         <v>45228.75835648148</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>45252.40496527778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>44922</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>45680.33516203704</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>44320.42920138889</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41352,7 +41352,7 @@
         <v>45205.54072916666</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>45215.55851851852</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41466,7 +41466,7 @@
         <v>45303.5246412037</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41523,7 +41523,7 @@
         <v>45733.40694444445</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41580,7 +41580,7 @@
         <v>45680.59315972222</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41642,7 +41642,7 @@
         <v>45680.59511574074</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41704,7 +41704,7 @@
         <v>45280</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41761,7 +41761,7 @@
         <v>45211.65987268519</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41818,7 +41818,7 @@
         <v>45589.68910879629</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41875,7 +41875,7 @@
         <v>45632.49377314815</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41932,7 +41932,7 @@
         <v>45103.70189814815</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41989,7 +41989,7 @@
         <v>44777.38348379629</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42046,7 +42046,7 @@
         <v>45653.58763888889</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42103,7 +42103,7 @@
         <v>45706.59630787037</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42160,7 +42160,7 @@
         <v>45443.56369212963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42217,7 +42217,7 @@
         <v>45384.54230324074</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42279,7 +42279,7 @@
         <v>45734</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42336,7 +42336,7 @@
         <v>45734</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42393,7 +42393,7 @@
         <v>44921.82634259259</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42450,7 +42450,7 @@
         <v>45378.73694444444</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42507,7 +42507,7 @@
         <v>44817</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42564,7 +42564,7 @@
         <v>45759.41274305555</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42621,7 +42621,7 @@
         <v>45314</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42678,7 +42678,7 @@
         <v>45589.69603009259</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42735,7 +42735,7 @@
         <v>45684.32357638889</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42792,7 +42792,7 @@
         <v>45630.3771412037</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42849,7 +42849,7 @@
         <v>45567.62038194444</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42906,7 +42906,7 @@
         <v>45315.51804398148</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42963,7 +42963,7 @@
         <v>44928.49351851852</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43020,7 +43020,7 @@
         <v>45209</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43077,7 +43077,7 @@
         <v>45680.71556712963</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43134,7 +43134,7 @@
         <v>45663</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43191,7 +43191,7 @@
         <v>45169.53290509259</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43248,7 +43248,7 @@
         <v>45776.86851851852</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43305,7 +43305,7 @@
         <v>45781.41818287037</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43362,7 +43362,7 @@
         <v>45781.41056712963</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45624.65733796296</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45638.46824074074</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45407.46351851852</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43590,7 +43590,7 @@
         <v>45527.3153125</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43647,7 +43647,7 @@
         <v>45719.47412037037</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43704,7 +43704,7 @@
         <v>45827.49856481481</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>45519.60221064815</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43818,7 +43818,7 @@
         <v>45589.48217592593</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>45799.30594907407</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>45460.54523148148</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43989,7 +43989,7 @@
         <v>45405.59800925926</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>45702.37107638889</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>45663.86024305555</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>44511.80325231481</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44511.87037037037</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>45804.36956018519</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>45804.49628472222</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
